--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_8_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_8_27.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1783133.390827451</v>
+        <v>1773935.274241738</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6933941.905492767</v>
+        <v>7709817.850552398</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10379896.07558124</v>
+        <v>10321680.73549501</v>
       </c>
     </row>
     <row r="11">
@@ -659,25 +659,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>343.4002714754829</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>295.9408816142891</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>132.997194893274</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>101.7806877295493</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -908,13 +908,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>198.4539099956393</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>33.44464115765295</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -987,13 +987,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>136.5310119231965</v>
+        <v>136.0669836643703</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553076</v>
+        <v>99.90681807664345</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>45.44580843958667</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,16 +1020,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>20.90078060183509</v>
       </c>
       <c r="S6" t="n">
-        <v>156.5912426325231</v>
+        <v>147.9721212459916</v>
       </c>
       <c r="T6" t="n">
-        <v>196.8897623984489</v>
+        <v>195.0194028815133</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8879277888686</v>
+        <v>225.8573996139459</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1051,31 +1051,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H7" t="n">
-        <v>59.7268375758684</v>
+        <v>56.11515275132967</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1102,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>224.9691923120744</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>412.9169039459368</v>
+        <v>411.4371413535349</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>118.4960408938903</v>
+        <v>61.44749355031655</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.1742023667267</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>30.69604598438024</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1224,13 +1224,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>136.0669836643703</v>
+        <v>135.275240877313</v>
       </c>
       <c r="H9" t="n">
-        <v>99.90681807664345</v>
+        <v>92.26024958059011</v>
       </c>
       <c r="I9" t="n">
-        <v>45.44580843958667</v>
+        <v>18.18624318344743</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,16 +1257,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.90078060183509</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>147.9721212459916</v>
+        <v>133.2658462320107</v>
       </c>
       <c r="T9" t="n">
-        <v>195.0194028815133</v>
+        <v>191.828123840699</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8573996139459</v>
+        <v>225.8053112726921</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1291,28 +1291,28 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>134.8672777834053</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>146.8105729959039</v>
       </c>
       <c r="I10" t="n">
-        <v>123.266557879417</v>
+        <v>103.3051669679944</v>
       </c>
       <c r="J10" t="n">
-        <v>17.69584188176898</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1336,22 +1336,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>99.32764374521085</v>
       </c>
       <c r="S10" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.5367941620016</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2244489913895</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>105.2295284728503</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1421,7 +1421,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396202</v>
+        <v>203.917970139621</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
@@ -1433,7 +1433,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1531,13 +1531,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.0258082590282</v>
@@ -1576,22 +1576,22 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>105.0076120744423</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>209.3584761600167</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1610,7 +1610,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206834</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1625,7 +1625,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292636</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1762,10 +1762,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>74.75769145492315</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1816,7 +1816,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>127.0598196324646</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
         <v>286.2118382056129</v>
@@ -2002,10 +2002,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2020,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004734</v>
+        <v>66.41220336022518</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>196.9899243971798</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2132,7 +2132,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396202</v>
+        <v>203.917970139621</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
@@ -2178,7 +2178,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247654</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2236,22 +2236,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>163.6898441249706</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,22 +2284,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>2.398536716037563</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2336,7 +2336,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2369,7 +2369,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
@@ -2412,10 +2412,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2476,7 +2476,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>106.0900968852905</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2488,13 +2488,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S25" t="n">
         <v>189.7690253314419</v>
@@ -2530,7 +2530,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>15.11174121957046</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2606,7 +2606,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U26" t="n">
         <v>250.995171958902</v>
@@ -2649,10 +2649,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2710,22 +2710,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S28" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>128.280832472064</v>
       </c>
       <c r="U28" t="n">
         <v>286.2118382056129</v>
@@ -2773,13 +2773,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>18.02571356436901</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2810,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2843,7 +2843,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U29" t="n">
         <v>250.995171958902</v>
@@ -2886,10 +2886,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2998,13 +2998,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>173.6268892744757</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>270.0697021486461</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3047,7 +3047,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3080,7 +3080,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U32" t="n">
         <v>250.995171958902</v>
@@ -3123,10 +3123,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3184,10 +3184,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -3199,7 +3199,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3241,19 +3241,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>135.8241034250906</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>131.5730391207944</v>
       </c>
     </row>
     <row r="35">
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881751</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
         <v>203.9179701396202</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9951719589025</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3332,7 +3332,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>386.237938656054</v>
       </c>
     </row>
     <row r="36">
@@ -3421,22 +3421,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3475,7 +3475,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>80.71606764504696</v>
       </c>
       <c r="U37" t="n">
         <v>286.2118382056129</v>
@@ -3487,10 +3487,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>190.0358734112037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3670,10 +3670,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>104.507789253086</v>
       </c>
       <c r="H40" t="n">
         <v>144.7550149143208</v>
@@ -3712,22 +3712,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>5.173720079375407</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881751</v>
       </c>
       <c r="T41" t="n">
         <v>203.917970139621</v>
@@ -3895,25 +3895,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>74.75769145492315</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>54.27293404461491</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
         <v>219.5489492761692</v>
@@ -3958,13 +3958,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3995,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4028,7 +4028,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
         <v>250.995171958902</v>
@@ -4071,10 +4071,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4138,22 +4138,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>20.55721778501525</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>35.97899192967594</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,22 +4180,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1194.683768698139</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="C2" t="n">
-        <v>825.7212517577275</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="D2" t="n">
-        <v>825.7212517577275</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E2" t="n">
-        <v>478.8522906713811</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
-        <v>67.86638588177355</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4355,25 +4355,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2642.120401548716</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2311.057514205145</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1958.288858935031</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X2" t="n">
-        <v>1584.823100673951</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="Y2" t="n">
-        <v>1194.683768698139</v>
+        <v>1363.553390680693</v>
       </c>
     </row>
     <row r="3">
@@ -4413,10 +4413,10 @@
         <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4431,7 +4431,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>507.3364050629041</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C4" t="n">
-        <v>338.4002221349972</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>188.2835827226615</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>188.2835827226615</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>188.2835827226615</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>188.2835827226615</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>188.2835827226615</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>625.3202087220412</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>625.3202087220412</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>625.3202087220412</v>
       </c>
       <c r="Y4" t="n">
-        <v>507.3364050629041</v>
+        <v>404.5276295785111</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1749.341643278937</v>
+        <v>1170.868604753196</v>
       </c>
       <c r="C5" t="n">
-        <v>1749.341643278937</v>
+        <v>1170.868604753196</v>
       </c>
       <c r="D5" t="n">
-        <v>1749.341643278937</v>
+        <v>1170.868604753196</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>785.0803521549515</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>374.0944473653439</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>173.6359524202537</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>173.6359524202537</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>75.17723181374775</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733124</v>
+        <v>478.6443448337932</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224073</v>
+        <v>859.6366960149613</v>
       </c>
       <c r="M5" t="n">
-        <v>1362.238747280443</v>
+        <v>1491.354506998273</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1685.688719890255</v>
       </c>
       <c r="O5" t="n">
-        <v>2238.843319642689</v>
+        <v>2232.849924657333</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2662.164970996627</v>
       </c>
       <c r="Q5" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2540.93405351505</v>
       </c>
       <c r="T5" t="n">
-        <v>2423.485734520778</v>
+        <v>2540.93405351505</v>
       </c>
       <c r="U5" t="n">
-        <v>2169.72394915887</v>
+        <v>2287.242350260201</v>
       </c>
       <c r="V5" t="n">
-        <v>2169.72394915887</v>
+        <v>2287.242350260201</v>
       </c>
       <c r="W5" t="n">
-        <v>2169.72394915887</v>
+        <v>1934.473694990087</v>
       </c>
       <c r="X5" t="n">
-        <v>2135.941483343059</v>
+        <v>1561.007936729007</v>
       </c>
       <c r="Y5" t="n">
-        <v>2135.941483343059</v>
+        <v>1170.868604753196</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>967.3646662469702</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>792.9116369658432</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>643.9772273045919</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>484.7397722991365</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>338.2052143260214</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>200.7638166852434</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>99.84783883004796</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>383.3713861261743</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>887.7329259922928</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1067.230262346898</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1432.170805967367</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>1981.606814720089</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2405.574583200926</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2636.288039261394</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2615.176139663581</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2465.709350526216</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2268.720054686303</v>
       </c>
       <c r="U6" t="n">
-        <v>2061.714576167582</v>
+        <v>2040.581267197469</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1805.429158965726</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1551.191802237525</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1343.340302031992</v>
       </c>
       <c r="Y6" t="n">
-        <v>1156.713312237151</v>
+        <v>1135.580003267038</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064342</v>
+        <v>443.9963345583446</v>
       </c>
       <c r="C7" t="n">
-        <v>559.1928012785273</v>
+        <v>443.9963345583446</v>
       </c>
       <c r="D7" t="n">
-        <v>409.0761618661916</v>
+        <v>443.9963345583446</v>
       </c>
       <c r="E7" t="n">
-        <v>261.1630682837985</v>
+        <v>443.9963345583446</v>
       </c>
       <c r="F7" t="n">
-        <v>114.2731207858881</v>
+        <v>297.1063870604343</v>
       </c>
       <c r="G7" t="n">
-        <v>114.2731207858881</v>
+        <v>128.4995420558176</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>71.81756957972706</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>71.81756957972706</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
-        <v>110.2451748866326</v>
+        <v>154.9909114159743</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>339.8239063167927</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>545.0935070360306</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>750.9168718721348</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>925.0117672607337</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>1050.459343859349</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>846.4373785321145</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>846.4373785321145</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>846.4373785321145</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>846.4373785321145</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>846.4373785321145</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>846.4373785321145</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064342</v>
+        <v>625.6447993885844</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1956.179462916631</v>
+        <v>1328.378386585844</v>
       </c>
       <c r="C8" t="n">
-        <v>1587.216945976219</v>
+        <v>1328.378386585844</v>
       </c>
       <c r="D8" t="n">
-        <v>1228.951247369469</v>
+        <v>1328.378386585844</v>
       </c>
       <c r="E8" t="n">
-        <v>1001.709638973434</v>
+        <v>942.5901339875998</v>
       </c>
       <c r="F8" t="n">
-        <v>590.7237341838262</v>
+        <v>531.6042291979923</v>
       </c>
       <c r="G8" t="n">
-        <v>173.6359524202537</v>
+        <v>116.0111571237145</v>
       </c>
       <c r="H8" t="n">
-        <v>173.6359524202537</v>
+        <v>116.0111571237145</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>75.17723181374775</v>
+        <v>199.5143021373487</v>
       </c>
       <c r="K8" t="n">
-        <v>157.7403863883401</v>
+        <v>468.4264940665502</v>
       </c>
       <c r="L8" t="n">
-        <v>710.5536446345393</v>
+        <v>838.9376088552594</v>
       </c>
       <c r="M8" t="n">
-        <v>1058.381051830409</v>
+        <v>1282.872051350723</v>
       </c>
       <c r="N8" t="n">
-        <v>1685.688719890255</v>
+        <v>1738.603625623768</v>
       </c>
       <c r="O8" t="n">
-        <v>2232.849924657333</v>
+        <v>2155.602766936376</v>
       </c>
       <c r="P8" t="n">
-        <v>2662.164970996627</v>
+        <v>2477.000885571628</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2670.18474111696</v>
       </c>
       <c r="R8" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2540.93405351505</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2540.93405351505</v>
+        <v>2488.892320950822</v>
       </c>
       <c r="U8" t="n">
-        <v>2287.242350260201</v>
+        <v>2488.892320950822</v>
       </c>
       <c r="V8" t="n">
-        <v>1956.179462916631</v>
+        <v>2457.886213895892</v>
       </c>
       <c r="W8" t="n">
-        <v>1956.179462916631</v>
+        <v>2105.117558625778</v>
       </c>
       <c r="X8" t="n">
-        <v>1956.179462916631</v>
+        <v>2105.117558625778</v>
       </c>
       <c r="Y8" t="n">
-        <v>1956.179462916631</v>
+        <v>1714.978226649966</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>967.3646662469702</v>
+        <v>931.3062050962127</v>
       </c>
       <c r="C9" t="n">
-        <v>792.9116369658432</v>
+        <v>756.8531758150857</v>
       </c>
       <c r="D9" t="n">
-        <v>643.9772273045919</v>
+        <v>607.9187661538344</v>
       </c>
       <c r="E9" t="n">
-        <v>484.7397722991365</v>
+        <v>448.681311148379</v>
       </c>
       <c r="F9" t="n">
-        <v>338.2052143260214</v>
+        <v>302.146753175264</v>
       </c>
       <c r="G9" t="n">
-        <v>200.7638166852434</v>
+        <v>165.5050957234327</v>
       </c>
       <c r="H9" t="n">
-        <v>99.84783883004796</v>
+        <v>72.31292442990731</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>172.6022336772601</v>
+        <v>121.8264159807866</v>
       </c>
       <c r="K9" t="n">
-        <v>502.03063798307</v>
+        <v>316.0048420001851</v>
       </c>
       <c r="L9" t="n">
-        <v>1006.392177849189</v>
+        <v>623.4242400445569</v>
       </c>
       <c r="M9" t="n">
-        <v>1441.490579173192</v>
+        <v>1290.968640071567</v>
       </c>
       <c r="N9" t="n">
-        <v>1640.147320825857</v>
+        <v>1693.485293892711</v>
       </c>
       <c r="O9" t="n">
-        <v>2189.58332957858</v>
+        <v>2179.82927303483</v>
       </c>
       <c r="P9" t="n">
-        <v>2613.551098059417</v>
+        <v>2438.195165861565</v>
       </c>
       <c r="Q9" t="n">
-        <v>2636.288039261394</v>
+        <v>2560.986726597623</v>
       </c>
       <c r="R9" t="n">
-        <v>2615.176139663581</v>
+        <v>2560.986726597623</v>
       </c>
       <c r="S9" t="n">
-        <v>2465.709350526216</v>
+        <v>2426.374760706703</v>
       </c>
       <c r="T9" t="n">
-        <v>2268.720054686303</v>
+        <v>2232.608979049431</v>
       </c>
       <c r="U9" t="n">
-        <v>2040.581267197469</v>
+        <v>2004.522806046712</v>
       </c>
       <c r="V9" t="n">
-        <v>1805.429158965726</v>
+        <v>1769.370697814969</v>
       </c>
       <c r="W9" t="n">
-        <v>1551.191802237525</v>
+        <v>1515.133341086767</v>
       </c>
       <c r="X9" t="n">
-        <v>1343.340302031992</v>
+        <v>1307.281840881235</v>
       </c>
       <c r="Y9" t="n">
-        <v>1135.580003267038</v>
+        <v>1099.521542116281</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>512.155374631218</v>
+        <v>592.9313563309867</v>
       </c>
       <c r="C10" t="n">
-        <v>343.2191917033111</v>
+        <v>592.9313563309867</v>
       </c>
       <c r="D10" t="n">
-        <v>343.2191917033111</v>
+        <v>442.8147169186509</v>
       </c>
       <c r="E10" t="n">
-        <v>343.2191917033111</v>
+        <v>442.8147169186509</v>
       </c>
       <c r="F10" t="n">
-        <v>196.3292442054008</v>
+        <v>442.8147169186509</v>
       </c>
       <c r="G10" t="n">
-        <v>196.3292442054008</v>
+        <v>306.5851434000597</v>
       </c>
       <c r="H10" t="n">
-        <v>196.3292442054008</v>
+        <v>158.2916353233891</v>
       </c>
       <c r="I10" t="n">
-        <v>71.81756957972706</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>82.88339090485941</v>
       </c>
       <c r="K10" t="n">
-        <v>154.9909114159743</v>
+        <v>260.2782098866545</v>
       </c>
       <c r="L10" t="n">
-        <v>339.8239063167927</v>
+        <v>542.8089378877605</v>
       </c>
       <c r="M10" t="n">
-        <v>545.0935070360306</v>
+        <v>851.0870999282812</v>
       </c>
       <c r="N10" t="n">
-        <v>750.9168718721348</v>
+        <v>1157.469712732903</v>
       </c>
       <c r="O10" t="n">
-        <v>925.0117672607337</v>
+        <v>1424.447349606354</v>
       </c>
       <c r="P10" t="n">
-        <v>1050.459343859349</v>
+        <v>1629.372157534689</v>
       </c>
       <c r="Q10" t="n">
-        <v>1053.877663279709</v>
+        <v>1687.816392302166</v>
       </c>
       <c r="R10" t="n">
-        <v>1053.877663279709</v>
+        <v>1587.485439024175</v>
       </c>
       <c r="S10" t="n">
-        <v>846.4373785321145</v>
+        <v>1587.485439024175</v>
       </c>
       <c r="T10" t="n">
-        <v>846.4373785321145</v>
+        <v>1364.721000476698</v>
       </c>
       <c r="U10" t="n">
-        <v>846.4373785321145</v>
+        <v>1075.605395434891</v>
       </c>
       <c r="V10" t="n">
-        <v>846.4373785321145</v>
+        <v>820.920907229004</v>
       </c>
       <c r="W10" t="n">
-        <v>740.1449255292354</v>
+        <v>820.920907229004</v>
       </c>
       <c r="X10" t="n">
-        <v>512.155374631218</v>
+        <v>592.9313563309867</v>
       </c>
       <c r="Y10" t="n">
-        <v>512.155374631218</v>
+        <v>592.9313563309867</v>
       </c>
     </row>
     <row r="11">
@@ -5042,16 +5042,16 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K11" t="n">
-        <v>750.1800661608922</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L11" t="n">
-        <v>1614.698881814247</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M11" t="n">
-        <v>2593.249184644075</v>
+        <v>2461.328657580449</v>
       </c>
       <c r="N11" t="n">
-        <v>3573.001456870722</v>
+        <v>3441.080929807095</v>
       </c>
       <c r="O11" t="n">
         <v>4075.973927750059</v>
@@ -5069,16 +5069,16 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T11" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V11" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X11" t="n">
         <v>3150.95552873011</v>
@@ -5124,7 +5124,7 @@
         <v>427.5025029193588</v>
       </c>
       <c r="L12" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
@@ -5173,16 +5173,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>675.7429179653792</v>
+        <v>1120.662598458018</v>
       </c>
       <c r="C13" t="n">
-        <v>506.8067350374723</v>
+        <v>951.7264155301116</v>
       </c>
       <c r="D13" t="n">
-        <v>506.8067350374723</v>
+        <v>801.6097761177758</v>
       </c>
       <c r="E13" t="n">
-        <v>506.8067350374723</v>
+        <v>653.6966825353827</v>
       </c>
       <c r="F13" t="n">
         <v>506.8067350374723</v>
@@ -5224,25 +5224,25 @@
         <v>1956.343466104703</v>
       </c>
       <c r="S13" t="n">
-        <v>1850.275171080014</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="T13" t="n">
-        <v>1850.275171080014</v>
+        <v>1734.576850674229</v>
       </c>
       <c r="U13" t="n">
-        <v>1850.275171080014</v>
+        <v>1734.576850674229</v>
       </c>
       <c r="V13" t="n">
-        <v>1595.590682874127</v>
+        <v>1734.576850674229</v>
       </c>
       <c r="W13" t="n">
-        <v>1306.173512837166</v>
+        <v>1734.576850674229</v>
       </c>
       <c r="X13" t="n">
-        <v>1078.183961939149</v>
+        <v>1523.103642431788</v>
       </c>
       <c r="Y13" t="n">
-        <v>857.3913827956189</v>
+        <v>1302.311063288258</v>
       </c>
     </row>
     <row r="14">
@@ -5261,16 +5261,16 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F14" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H14" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I14" t="n">
         <v>95.56103444839442</v>
@@ -5279,10 +5279,10 @@
         <v>451.8458144277728</v>
       </c>
       <c r="K14" t="n">
-        <v>1106.569146563072</v>
+        <v>785.6651881176192</v>
       </c>
       <c r="L14" t="n">
-        <v>1557.603359811481</v>
+        <v>1453.840519464784</v>
       </c>
       <c r="M14" t="n">
         <v>2432.390822294613</v>
@@ -5358,22 +5358,22 @@
         <v>189.2383039390117</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L15" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N15" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O15" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P15" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q15" t="n">
         <v>2594.102460549552</v>
@@ -5410,7 +5410,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>264.4972173763014</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C16" t="n">
         <v>95.56103444839442</v>
@@ -5464,22 +5464,22 @@
         <v>1674.827124689057</v>
       </c>
       <c r="T16" t="n">
-        <v>1546.483872535053</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U16" t="n">
-        <v>1257.381005660696</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V16" t="n">
-        <v>1002.69651745481</v>
+        <v>909.27315417834</v>
       </c>
       <c r="W16" t="n">
-        <v>713.2793474178488</v>
+        <v>619.8559841413794</v>
       </c>
       <c r="X16" t="n">
-        <v>485.2897965198315</v>
+        <v>391.8664332433621</v>
       </c>
       <c r="Y16" t="n">
-        <v>264.4972173763014</v>
+        <v>171.0738540998319</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C17" t="n">
         <v>2005.253839749764</v>
@@ -5498,16 +5498,16 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551622</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G17" t="n">
         <v>435.1415336001586</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I17" t="n">
         <v>95.56103444839442</v>
@@ -5519,19 +5519,19 @@
         <v>1106.569146563072</v>
       </c>
       <c r="L17" t="n">
-        <v>1557.603359811481</v>
+        <v>1971.087962216427</v>
       </c>
       <c r="M17" t="n">
-        <v>2432.390822294613</v>
+        <v>2949.638265046255</v>
       </c>
       <c r="N17" t="n">
-        <v>2979.169639353395</v>
+        <v>3507.942201196469</v>
       </c>
       <c r="O17" t="n">
-        <v>3482.142110232732</v>
+        <v>4010.914672075806</v>
       </c>
       <c r="P17" t="n">
-        <v>4195.497197679678</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q17" t="n">
         <v>4653.975400188666</v>
@@ -5543,22 +5543,22 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U17" t="n">
         <v>4208.252829604874</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W17" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="18">
@@ -5595,22 +5595,22 @@
         <v>189.2383039390117</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320247</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N18" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O18" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q18" t="n">
         <v>2594.102460549552</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>192.8867116300491</v>
+        <v>414.6138567886371</v>
       </c>
       <c r="C19" t="n">
-        <v>192.8867116300491</v>
+        <v>245.6776738607302</v>
       </c>
       <c r="D19" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E19" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F19" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G19" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H19" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I19" t="n">
         <v>95.56103444839442</v>
@@ -5695,28 +5695,28 @@
         <v>1956.343466104703</v>
       </c>
       <c r="R19" t="n">
-        <v>1866.513008862231</v>
+        <v>1889.260432407506</v>
       </c>
       <c r="S19" t="n">
-        <v>1674.827124689057</v>
+        <v>1697.574548234332</v>
       </c>
       <c r="T19" t="n">
-        <v>1453.060509258583</v>
+        <v>1475.807932803858</v>
       </c>
       <c r="U19" t="n">
-        <v>1163.957642384227</v>
+        <v>1186.705065929502</v>
       </c>
       <c r="V19" t="n">
-        <v>909.27315417834</v>
+        <v>932.0205777236151</v>
       </c>
       <c r="W19" t="n">
-        <v>619.8559841413794</v>
+        <v>642.6034076866545</v>
       </c>
       <c r="X19" t="n">
-        <v>391.8664332433621</v>
+        <v>414.6138567886371</v>
       </c>
       <c r="Y19" t="n">
-        <v>192.8867116300491</v>
+        <v>414.6138567886371</v>
       </c>
     </row>
     <row r="20">
@@ -5729,16 +5729,16 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G20" t="n">
         <v>435.1415336001585</v>
@@ -5750,28 +5750,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>451.8458144277728</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K20" t="n">
-        <v>1070.832524924162</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L20" t="n">
-        <v>1521.866738172571</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M20" t="n">
-        <v>2055.398642844495</v>
+        <v>2461.328657580449</v>
       </c>
       <c r="N20" t="n">
-        <v>2602.177459903277</v>
+        <v>3441.080929807095</v>
       </c>
       <c r="O20" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P20" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q20" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R20" t="n">
         <v>4778.051722419721</v>
@@ -5780,16 +5780,16 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V20" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X20" t="n">
         <v>3150.95552873011</v>
@@ -5805,25 +5805,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973187</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161917</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549405</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494859</v>
+        <v>487.967878549485</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763709</v>
+        <v>341.43332057637</v>
       </c>
       <c r="G21" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089881</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468556</v>
       </c>
       <c r="I21" t="n">
         <v>95.56103444839442</v>
@@ -5853,28 +5853,28 @@
         <v>2594.102460549551</v>
       </c>
       <c r="R21" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S21" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T21" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313402</v>
       </c>
       <c r="U21" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V21" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216075</v>
       </c>
       <c r="W21" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487873</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="22">
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>95.56103444839442</v>
+        <v>877.1197344942216</v>
       </c>
       <c r="C22" t="n">
-        <v>95.56103444839442</v>
+        <v>708.1835515663147</v>
       </c>
       <c r="D22" t="n">
-        <v>95.56103444839442</v>
+        <v>558.0669121539789</v>
       </c>
       <c r="E22" t="n">
-        <v>95.56103444839442</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="F22" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G22" t="n">
         <v>95.56103444839442</v>
@@ -5932,28 +5932,28 @@
         <v>1956.343466104703</v>
       </c>
       <c r="R22" t="n">
-        <v>1956.343466104703</v>
+        <v>1953.920701745069</v>
       </c>
       <c r="S22" t="n">
-        <v>1764.657581931529</v>
+        <v>1762.234817571896</v>
       </c>
       <c r="T22" t="n">
-        <v>1542.890966501056</v>
+        <v>1762.234817571896</v>
       </c>
       <c r="U22" t="n">
-        <v>1253.788099626699</v>
+        <v>1762.234817571896</v>
       </c>
       <c r="V22" t="n">
-        <v>999.1036114208122</v>
+        <v>1507.550329366009</v>
       </c>
       <c r="W22" t="n">
-        <v>709.6864413838516</v>
+        <v>1507.550329366009</v>
       </c>
       <c r="X22" t="n">
-        <v>481.6968904858343</v>
+        <v>1279.560778467991</v>
       </c>
       <c r="Y22" t="n">
-        <v>260.9043113423041</v>
+        <v>1058.768199324461</v>
       </c>
     </row>
     <row r="23">
@@ -5963,19 +5963,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F23" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G23" t="n">
         <v>435.1415336001585</v>
@@ -5984,7 +5984,7 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I23" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
         <v>284.4401654074198</v>
@@ -5993,46 +5993,46 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L23" t="n">
-        <v>1237.706702364128</v>
+        <v>1237.706702364129</v>
       </c>
       <c r="M23" t="n">
-        <v>2216.257005193956</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N23" t="n">
-        <v>3196.009277420603</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O23" t="n">
-        <v>4075.973927750058</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P23" t="n">
-        <v>4470.748294107236</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q23" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R23" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="24">
@@ -6042,52 +6042,52 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I24" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K24" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320243</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N24" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O24" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q24" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R24" t="n">
         <v>2593.958107142068</v>
@@ -6099,7 +6099,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V24" t="n">
         <v>1808.657265216076</v>
@@ -6108,10 +6108,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y24" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="25">
@@ -6121,34 +6121,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>300.048425655595</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="C25" t="n">
-        <v>192.886711630049</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D25" t="n">
-        <v>192.886711630049</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E25" t="n">
-        <v>192.886711630049</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F25" t="n">
-        <v>192.886711630049</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G25" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H25" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I25" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J25" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K25" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L25" t="n">
         <v>661.2306482927024</v>
@@ -6160,37 +6160,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O25" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P25" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q25" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R25" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S25" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T25" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U25" t="n">
-        <v>1253.788099626699</v>
+        <v>1437.79612418831</v>
       </c>
       <c r="V25" t="n">
-        <v>999.1036114208126</v>
+        <v>1183.111635982423</v>
       </c>
       <c r="W25" t="n">
-        <v>709.6864413838521</v>
+        <v>893.6944659454626</v>
       </c>
       <c r="X25" t="n">
-        <v>481.6968904858347</v>
+        <v>665.7049150474453</v>
       </c>
       <c r="Y25" t="n">
-        <v>481.6968904858347</v>
+        <v>444.9123359039152</v>
       </c>
     </row>
     <row r="26">
@@ -6212,10 +6212,10 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551618</v>
+        <v>850.2139837551621</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H26" t="n">
         <v>137.5579332089257</v>
@@ -6224,28 +6224,28 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J26" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K26" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972662</v>
       </c>
       <c r="L26" t="n">
-        <v>1898.858917622687</v>
+        <v>1237.706702364128</v>
       </c>
       <c r="M26" t="n">
-        <v>2432.390822294612</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N26" t="n">
-        <v>2979.169639353394</v>
+        <v>3196.009277420603</v>
       </c>
       <c r="O26" t="n">
-        <v>3482.142110232731</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P26" t="n">
-        <v>4195.497197679677</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q26" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R26" t="n">
         <v>4778.05172241972</v>
@@ -6279,25 +6279,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089891</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I27" t="n">
         <v>95.56103444839441</v>
@@ -6306,10 +6306,10 @@
         <v>189.2383039390117</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L27" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
@@ -6345,10 +6345,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="28">
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>709.4168978689405</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="C28" t="n">
-        <v>540.4807149410336</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D28" t="n">
-        <v>390.3640755286979</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E28" t="n">
-        <v>242.4509819463048</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F28" t="n">
-        <v>95.56103444839441</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G28" t="n">
         <v>95.56103444839441</v>
@@ -6382,10 +6382,10 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J28" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K28" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L28" t="n">
         <v>661.2306482927024</v>
@@ -6397,37 +6397,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O28" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P28" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q28" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R28" t="n">
-        <v>1866.513008862232</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S28" t="n">
-        <v>1674.827124689058</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T28" t="n">
-        <v>1453.060509258584</v>
+        <v>1545.250526232427</v>
       </c>
       <c r="U28" t="n">
-        <v>1163.957642384228</v>
+        <v>1256.147659358071</v>
       </c>
       <c r="V28" t="n">
-        <v>909.2731541783409</v>
+        <v>1001.463171152184</v>
       </c>
       <c r="W28" t="n">
-        <v>909.2731541783409</v>
+        <v>712.0460011152229</v>
       </c>
       <c r="X28" t="n">
-        <v>891.0653626991802</v>
+        <v>484.0564502172056</v>
       </c>
       <c r="Y28" t="n">
-        <v>891.0653626991802</v>
+        <v>263.2638710736754</v>
       </c>
     </row>
     <row r="29">
@@ -6467,16 +6467,16 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L29" t="n">
-        <v>1237.706702364128</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M29" t="n">
-        <v>2216.257005193957</v>
+        <v>2461.328657580449</v>
       </c>
       <c r="N29" t="n">
-        <v>3196.009277420604</v>
+        <v>3441.080929807095</v>
       </c>
       <c r="O29" t="n">
-        <v>4075.973927750058</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P29" t="n">
         <v>4470.748294107237</v>
@@ -6531,7 +6531,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H30" t="n">
         <v>114.5683260468565</v>
@@ -6540,19 +6540,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N30" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O30" t="n">
         <v>2125.96131142685</v>
@@ -6622,7 +6622,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K31" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L31" t="n">
         <v>661.2306482927024</v>
@@ -6634,22 +6634,22 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O31" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P31" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q31" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R31" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S31" t="n">
-        <v>1780.96276986786</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T31" t="n">
-        <v>1559.196154437386</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U31" t="n">
         <v>1270.093287563029</v>
@@ -6677,73 +6677,73 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551617</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089255</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I32" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
         <v>284.4401654074198</v>
       </c>
       <c r="K32" t="n">
-        <v>939.1634975427194</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L32" t="n">
-        <v>1549.639626139992</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M32" t="n">
-        <v>2528.189928969821</v>
+        <v>2461.328657580449</v>
       </c>
       <c r="N32" t="n">
-        <v>3507.942201196468</v>
+        <v>3441.080929807095</v>
       </c>
       <c r="O32" t="n">
-        <v>4010.914672075804</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P32" t="n">
-        <v>4405.689038432983</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q32" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R32" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S32" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T32" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="33">
@@ -6753,37 +6753,37 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G33" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I33" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390123</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
@@ -6810,7 +6810,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U33" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V33" t="n">
         <v>1808.657265216076</v>
@@ -6819,10 +6819,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X33" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y33" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3698.827990809238</v>
+        <v>540.4807149410336</v>
       </c>
       <c r="C34" t="n">
-        <v>3529.891807881331</v>
+        <v>540.4807149410336</v>
       </c>
       <c r="D34" t="n">
-        <v>3379.775168468996</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="E34" t="n">
-        <v>3231.862074886602</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F34" t="n">
-        <v>3084.972127388692</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G34" t="n">
-        <v>2917.269290763411</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H34" t="n">
-        <v>2917.269290763411</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I34" t="n">
-        <v>2917.269290763411</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J34" t="n">
-        <v>2962.391923210347</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K34" t="n">
-        <v>3166.379106159223</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L34" t="n">
-        <v>3482.938904607719</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M34" t="n">
-        <v>3827.095950207268</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N34" t="n">
-        <v>4168.504326913133</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O34" t="n">
-        <v>4467.833925833546</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P34" t="n">
-        <v>4700.441426267205</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q34" t="n">
-        <v>4778.05172241972</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R34" t="n">
-        <v>4688.221265177248</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S34" t="n">
-        <v>4688.221265177248</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="T34" t="n">
-        <v>4466.454649746774</v>
+        <v>1734.576850674229</v>
       </c>
       <c r="U34" t="n">
-        <v>4466.454649746774</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V34" t="n">
-        <v>4466.454649746774</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W34" t="n">
-        <v>4329.258585681026</v>
+        <v>901.3723255570251</v>
       </c>
       <c r="X34" t="n">
-        <v>4101.269034783008</v>
+        <v>673.3827746590077</v>
       </c>
       <c r="Y34" t="n">
-        <v>3880.476455639478</v>
+        <v>540.4807149410336</v>
       </c>
     </row>
     <row r="35">
@@ -6941,16 +6941,16 @@
         <v>785.6651881176192</v>
       </c>
       <c r="L35" t="n">
-        <v>1236.699401366028</v>
+        <v>1650.184003770974</v>
       </c>
       <c r="M35" t="n">
-        <v>2215.249704195856</v>
+        <v>2183.715908442898</v>
       </c>
       <c r="N35" t="n">
-        <v>2762.028521254639</v>
+        <v>3163.468180669544</v>
       </c>
       <c r="O35" t="n">
-        <v>3482.142110232732</v>
+        <v>3666.440651548881</v>
       </c>
       <c r="P35" t="n">
         <v>4195.497197679678</v>
@@ -6962,10 +6962,10 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S35" t="n">
-        <v>4667.761053946817</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T35" t="n">
-        <v>4461.783306331039</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U35" t="n">
         <v>4208.252829604875</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>709.4168978689405</v>
+        <v>411.1769646560685</v>
       </c>
       <c r="C37" t="n">
-        <v>540.4807149410336</v>
+        <v>411.1769646560685</v>
       </c>
       <c r="D37" t="n">
-        <v>390.3640755286979</v>
+        <v>411.1769646560685</v>
       </c>
       <c r="E37" t="n">
-        <v>242.4509819463048</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F37" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G37" t="n">
         <v>95.56103444839442</v>
@@ -7123,22 +7123,22 @@
         <v>1956.343466104703</v>
       </c>
       <c r="T37" t="n">
-        <v>1734.576850674229</v>
+        <v>1874.81208464506</v>
       </c>
       <c r="U37" t="n">
-        <v>1445.473983799873</v>
+        <v>1585.709217770703</v>
       </c>
       <c r="V37" t="n">
-        <v>1190.789495593986</v>
+        <v>1331.024729564816</v>
       </c>
       <c r="W37" t="n">
-        <v>901.3723255570251</v>
+        <v>1041.607559527856</v>
       </c>
       <c r="X37" t="n">
-        <v>709.4168978689405</v>
+        <v>813.6180086298384</v>
       </c>
       <c r="Y37" t="n">
-        <v>709.4168978689405</v>
+        <v>592.8254294863083</v>
       </c>
     </row>
     <row r="38">
@@ -7172,28 +7172,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K38" t="n">
-        <v>864.5728002389887</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L38" t="n">
-        <v>1729.091615892343</v>
+        <v>1898.858917622689</v>
       </c>
       <c r="M38" t="n">
-        <v>2707.641918722172</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N38" t="n">
-        <v>3254.420735780954</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O38" t="n">
-        <v>3757.393206660291</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P38" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q38" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R38" t="n">
         <v>4778.051722419721</v>
@@ -7257,22 +7257,22 @@
         <v>427.5025029193588</v>
       </c>
       <c r="L39" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M39" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N39" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O39" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P39" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q39" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R39" t="n">
         <v>2593.958107142068</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>970.5459590456827</v>
+        <v>761.5165984104569</v>
       </c>
       <c r="C40" t="n">
-        <v>801.6097761177758</v>
+        <v>592.5804154825501</v>
       </c>
       <c r="D40" t="n">
-        <v>801.6097761177758</v>
+        <v>592.5804154825501</v>
       </c>
       <c r="E40" t="n">
-        <v>653.6966825353827</v>
+        <v>444.6673219001569</v>
       </c>
       <c r="F40" t="n">
-        <v>506.8067350374723</v>
+        <v>444.6673219001569</v>
       </c>
       <c r="G40" t="n">
         <v>339.1038984121913</v>
@@ -7360,22 +7360,22 @@
         <v>1674.827124689057</v>
       </c>
       <c r="T40" t="n">
-        <v>1669.6011448109</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U40" t="n">
-        <v>1669.6011448109</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V40" t="n">
-        <v>1669.6011448109</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="W40" t="n">
-        <v>1380.18397477394</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="X40" t="n">
-        <v>1152.194423875922</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="Y40" t="n">
-        <v>1152.194423875922</v>
+        <v>943.1650632406967</v>
       </c>
     </row>
     <row r="41">
@@ -7409,25 +7409,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K41" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L41" t="n">
-        <v>1069.293752345675</v>
+        <v>1898.858917622689</v>
       </c>
       <c r="M41" t="n">
-        <v>2047.844055175503</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N41" t="n">
-        <v>3027.59632740215</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O41" t="n">
-        <v>3692.333950986038</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P41" t="n">
-        <v>4405.689038432984</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q41" t="n">
         <v>4653.975400188666</v>
@@ -7436,10 +7436,10 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S41" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946817</v>
       </c>
       <c r="T41" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U41" t="n">
         <v>4208.252829604874</v>
@@ -7488,25 +7488,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J42" t="n">
-        <v>189.2383039390123</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320247</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M42" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N42" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O42" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P42" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q42" t="n">
         <v>2594.102460549552</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>781.1514798657287</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C43" t="n">
-        <v>612.2152969378218</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D43" t="n">
-        <v>557.3941514382108</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E43" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F43" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G43" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H43" t="n">
         <v>95.56103444839442</v>
@@ -7591,28 +7591,28 @@
         <v>1956.343466104703</v>
       </c>
       <c r="R43" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S43" t="n">
-        <v>1956.343466104703</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T43" t="n">
-        <v>1734.576850674229</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U43" t="n">
-        <v>1445.473983799873</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V43" t="n">
-        <v>1190.789495593986</v>
+        <v>909.27315417834</v>
       </c>
       <c r="W43" t="n">
-        <v>1190.789495593986</v>
+        <v>619.8559841413794</v>
       </c>
       <c r="X43" t="n">
-        <v>962.7999446959684</v>
+        <v>391.8664332433621</v>
       </c>
       <c r="Y43" t="n">
-        <v>962.7999446959684</v>
+        <v>171.0738540998319</v>
       </c>
     </row>
     <row r="44">
@@ -7631,13 +7631,13 @@
         <v>1646.988141143015</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F44" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551622</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H44" t="n">
         <v>137.5579332089257</v>
@@ -7646,25 +7646,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J44" t="n">
-        <v>451.8458144277728</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K44" t="n">
-        <v>1106.569146563072</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L44" t="n">
         <v>1557.603359811481</v>
       </c>
       <c r="M44" t="n">
-        <v>2209.609207880055</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N44" t="n">
-        <v>3189.361480106701</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O44" t="n">
-        <v>3692.333950986038</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P44" t="n">
-        <v>4405.689038432984</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q44" t="n">
         <v>4653.975400188666</v>
@@ -7701,22 +7701,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G45" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H45" t="n">
         <v>114.5683260468565</v>
@@ -7725,22 +7725,22 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L45" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M45" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N45" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O45" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P45" t="n">
         <v>2436.460902902953</v>
@@ -7767,10 +7767,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X45" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y45" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="46">
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1010.11506705069</v>
+        <v>698.2036912151405</v>
       </c>
       <c r="C46" t="n">
-        <v>841.178884122783</v>
+        <v>529.2675082872336</v>
       </c>
       <c r="D46" t="n">
-        <v>691.0622447104472</v>
+        <v>508.5026418377232</v>
       </c>
       <c r="E46" t="n">
-        <v>543.1491511280541</v>
+        <v>360.5895482553301</v>
       </c>
       <c r="F46" t="n">
-        <v>506.8067350374723</v>
+        <v>360.5895482553301</v>
       </c>
       <c r="G46" t="n">
-        <v>339.1038984121913</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="H46" t="n">
         <v>192.8867116300491</v>
@@ -7807,7 +7807,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K46" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L46" t="n">
         <v>661.2306482927024</v>
@@ -7819,37 +7819,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O46" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P46" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q46" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R46" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S46" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="T46" t="n">
-        <v>1956.343466104703</v>
+        <v>1644.746393431758</v>
       </c>
       <c r="U46" t="n">
-        <v>1667.240599230347</v>
+        <v>1644.746393431758</v>
       </c>
       <c r="V46" t="n">
-        <v>1412.55611102446</v>
+        <v>1390.061905225871</v>
       </c>
       <c r="W46" t="n">
-        <v>1412.55611102446</v>
+        <v>1100.64473518891</v>
       </c>
       <c r="X46" t="n">
-        <v>1412.55611102446</v>
+        <v>1100.64473518891</v>
       </c>
       <c r="Y46" t="n">
-        <v>1191.76353188093</v>
+        <v>879.8521560453802</v>
       </c>
     </row>
   </sheetData>
@@ -8055,19 +8055,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>327.4218609627882</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>435.9238900028826</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8213,19 +8213,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>417.6612145504504</v>
+        <v>244.1047427675908</v>
       </c>
       <c r="M5" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N5" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
         <v>380.8001812627454</v>
@@ -8234,7 +8234,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>6.233205181928369</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8301,10 +8301,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>167.9634363311153</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8456,25 +8456,25 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>162.7555498691536</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8529,31 +8529,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>258.1828939084838</v>
+        <v>292.3672670436452</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>141.7572465715215</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>17.26494649393206</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8690,7 +8690,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>133.2530576400263</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>417.6612145504504</v>
@@ -8702,7 +8702,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>133.253057640027</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -8927,13 +8927,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>219.3344627260167</v>
       </c>
       <c r="M14" t="n">
-        <v>344.7025836476846</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -9167,22 +9167,22 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>344.7025836476846</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>11.64153443578948</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9398,31 +9398,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>288.047814956104</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627454</v>
+        <v>133.253057640027</v>
       </c>
       <c r="P20" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9501,7 +9501,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9641,7 +9641,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>170.1140909277297</v>
+        <v>170.1140909277313</v>
       </c>
       <c r="M23" t="n">
         <v>449.5135334928325</v>
@@ -9872,31 +9872,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>344.7025836476828</v>
+        <v>170.1140909277305</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10115,7 +10115,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>170.1140909277306</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
         <v>449.5135334928325</v>
@@ -10124,7 +10124,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>133.253057640027</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -10349,10 +10349,10 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>161.0524397463274</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
         <v>449.5135334928325</v>
@@ -10361,7 +10361,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>133.253057640027</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10589,19 +10589,19 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>219.3344627260169</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>135.6385654278976</v>
       </c>
       <c r="Q35" t="n">
         <v>212.3149906599047</v>
@@ -10820,16 +10820,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>248.8012738805278</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>344.7025836476847</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -10841,10 +10841,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10923,7 +10923,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11057,28 +11057,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>344.7025836476847</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>163.3991441460116</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11303,19 +11303,19 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>119.6706498956056</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -23419,13 +23419,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23464,22 +23464,22 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S13" t="n">
-        <v>84.76141325699962</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>16.35117922902043</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23650,10 +23650,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>105.0742887270141</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23704,7 +23704,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>92.48912964370462</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23890,10 +23890,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23908,7 +23908,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>22.51994930982217</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>21.59472895491498</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24124,22 +24124,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>16.14213605696668</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
@@ -24172,22 +24172,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004734</v>
+        <v>86.53361595400978</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24364,7 +24364,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>61.15672421333734</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24376,13 +24376,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24418,7 +24418,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>271.1000969860424</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24652,7 +24652,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>91.26811680410518</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24661,13 +24661,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>207.6839418246681</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24856,7 +24856,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,16 +24883,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S31" t="n">
-        <v>16.14213605696617</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>16.14213605696682</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25072,10 +25072,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25087,13 +25087,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S34" t="n">
         <v>189.7690253314419</v>
@@ -25129,19 +25129,19 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>150.6988949115004</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>87.01161423130043</v>
       </c>
     </row>
     <row r="35">
@@ -25309,22 +25309,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>144.7550149143208</v>
@@ -25363,7 +25363,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>138.8328816311222</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25375,10 +25375,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>35.67378197783344</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25558,10 +25558,10 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>61.51801900594226</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25600,22 +25600,22 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>214.3752291967938</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25783,25 +25783,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>105.0742887270141</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>94.34253897359744</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
         <v>96.35242040983812</v>
@@ -25831,10 +25831,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25846,13 +25846,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26026,19 +26026,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>128.0582552331971</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>109.4420560932553</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26068,22 +26068,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>953483.1788865192</v>
+        <v>931092.273073997</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>931092.273073997</v>
+        <v>891413.1032817486</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>881494.7672302296</v>
+        <v>881494.7672302297</v>
       </c>
     </row>
     <row r="6">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>881494.7672302295</v>
+        <v>881494.7672302296</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>881494.7672302296</v>
+        <v>881494.7672302297</v>
       </c>
     </row>
     <row r="11">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>881494.7672302297</v>
+        <v>881494.7672302296</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>881494.7672302296</v>
+        <v>881494.7672302297</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>554203.1946583913</v>
+      </c>
+      <c r="C2" t="n">
+        <v>554203.1946583914</v>
+      </c>
+      <c r="D2" t="n">
         <v>554203.1946583912</v>
       </c>
-      <c r="C2" t="n">
-        <v>554203.1946583909</v>
-      </c>
-      <c r="D2" t="n">
-        <v>554203.1946583914</v>
-      </c>
       <c r="E2" t="n">
+        <v>536060.4122974273</v>
+      </c>
+      <c r="F2" t="n">
         <v>536060.4122974277</v>
       </c>
-      <c r="F2" t="n">
-        <v>536060.4122974272</v>
-      </c>
       <c r="G2" t="n">
-        <v>536060.4122974277</v>
+        <v>536060.4122974273</v>
       </c>
       <c r="H2" t="n">
         <v>536060.4122974273</v>
       </c>
       <c r="I2" t="n">
-        <v>536060.4122974277</v>
+        <v>536060.4122974274</v>
       </c>
       <c r="J2" t="n">
-        <v>536060.4122974274</v>
+        <v>536060.4122974275</v>
       </c>
       <c r="K2" t="n">
-        <v>536060.4122974275</v>
+        <v>536060.4122974273</v>
       </c>
       <c r="L2" t="n">
         <v>536060.4122974277</v>
       </c>
       <c r="M2" t="n">
-        <v>536060.4122974272</v>
+        <v>536060.4122974274</v>
       </c>
       <c r="N2" t="n">
-        <v>536060.4122974275</v>
+        <v>536060.4122974277</v>
       </c>
       <c r="O2" t="n">
+        <v>536060.4122974278</v>
+      </c>
+      <c r="P2" t="n">
         <v>536060.4122974277</v>
-      </c>
-      <c r="P2" t="n">
-        <v>536060.4122974275</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>196446.3877966352</v>
       </c>
       <c r="D3" t="n">
-        <v>184756.2785481116</v>
+        <v>315238.2384513058</v>
       </c>
       <c r="E3" t="n">
-        <v>554057.3276165042</v>
+        <v>258331.9582431702</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>207826.5542404878</v>
+        <v>209922.4154630333</v>
       </c>
       <c r="C4" t="n">
-        <v>207826.5542404878</v>
+        <v>176266.9759012793</v>
       </c>
       <c r="D4" t="n">
-        <v>174833.3509411825</v>
+        <v>121617.1617317167</v>
       </c>
       <c r="E4" t="n">
-        <v>27740.5421021967</v>
+        <v>28561.83935289578</v>
       </c>
       <c r="F4" t="n">
-        <v>27740.54210219669</v>
+        <v>28561.83935289576</v>
       </c>
       <c r="G4" t="n">
-        <v>27740.54210219669</v>
+        <v>28561.83935289577</v>
       </c>
       <c r="H4" t="n">
-        <v>27740.5421021967</v>
+        <v>28561.83935289579</v>
       </c>
       <c r="I4" t="n">
-        <v>27740.54210219667</v>
+        <v>28561.83935289577</v>
       </c>
       <c r="J4" t="n">
-        <v>27740.54210219666</v>
+        <v>28561.83935289575</v>
       </c>
       <c r="K4" t="n">
-        <v>27740.54210219668</v>
+        <v>28561.83935289578</v>
       </c>
       <c r="L4" t="n">
-        <v>27740.54210219666</v>
+        <v>28561.83935289578</v>
       </c>
       <c r="M4" t="n">
-        <v>27740.54210219669</v>
+        <v>28561.83935289577</v>
       </c>
       <c r="N4" t="n">
-        <v>27740.5421021967</v>
+        <v>28561.83935289576</v>
       </c>
       <c r="O4" t="n">
-        <v>27740.5421021967</v>
+        <v>28561.83935289576</v>
       </c>
       <c r="P4" t="n">
-        <v>27740.5421021967</v>
+        <v>28561.83935289575</v>
       </c>
     </row>
     <row r="5">
@@ -26470,10 +26470,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>87562.0451708468</v>
       </c>
       <c r="D5" t="n">
-        <v>87562.0451708468</v>
+        <v>95586.42776879412</v>
       </c>
       <c r="E5" t="n">
         <v>96383.51825371364</v>
@@ -26494,7 +26494,7 @@
         <v>96383.51825371364</v>
       </c>
       <c r="K5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="L5" t="n">
         <v>96383.51825371364</v>
@@ -26509,7 +26509,7 @@
         <v>96383.51825371364</v>
       </c>
       <c r="P5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-326450.3168600505</v>
+        <v>-328546.178082596</v>
       </c>
       <c r="C6" t="n">
-        <v>263517.5623544937</v>
+        <v>93927.78578963014</v>
       </c>
       <c r="D6" t="n">
-        <v>107051.5199982505</v>
+        <v>21761.3667065746</v>
       </c>
       <c r="E6" t="n">
-        <v>-142120.9756749868</v>
+        <v>152783.0964476477</v>
       </c>
       <c r="F6" t="n">
-        <v>411936.3519415169</v>
+        <v>411115.0546908183</v>
       </c>
       <c r="G6" t="n">
-        <v>411936.3519415173</v>
+        <v>411115.0546908179</v>
       </c>
       <c r="H6" t="n">
-        <v>411936.351941517</v>
+        <v>411115.0546908178</v>
       </c>
       <c r="I6" t="n">
-        <v>411936.3519415173</v>
+        <v>411115.054690818</v>
       </c>
       <c r="J6" t="n">
-        <v>235513.1327489241</v>
+        <v>234691.8354982253</v>
       </c>
       <c r="K6" t="n">
-        <v>411936.3519415172</v>
+        <v>411115.0546908179</v>
       </c>
       <c r="L6" t="n">
-        <v>411936.3519415173</v>
+        <v>411115.0546908182</v>
       </c>
       <c r="M6" t="n">
-        <v>282294.037102572</v>
+        <v>281472.7398518733</v>
       </c>
       <c r="N6" t="n">
-        <v>411936.3519415172</v>
+        <v>411115.0546908183</v>
       </c>
       <c r="O6" t="n">
-        <v>411936.3519415173</v>
+        <v>411115.0546908184</v>
       </c>
       <c r="P6" t="n">
-        <v>411936.3519415172</v>
+        <v>411115.0546908182</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>593.4761003380651</v>
       </c>
       <c r="D3" t="n">
-        <v>593.4761003380651</v>
+        <v>961.5670451980344</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>215.7324361209784</v>
       </c>
       <c r="D3" t="n">
-        <v>215.7324361209784</v>
+        <v>368.0909448599693</v>
       </c>
       <c r="E3" t="n">
-        <v>496.300600255233</v>
+        <v>128.2096553952637</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503749</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,25 +27379,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>38.53009859677888</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,25 +27427,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>73.79021906417989</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,13 +27534,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27555,10 +27555,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>1.968426899064184</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27594,7 +27594,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>150.3569555942787</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27628,10 +27628,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>214.4629939502974</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,10 +27664,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27676,13 +27676,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>336.2864595208161</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,31 +27771,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>96.44405126592675</v>
+        <v>96.59694391790288</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,19 +27816,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,16 +27850,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>156.9611777601874</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,7 +27868,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>315.0408840752156</v>
+        <v>299.8862654257798</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>120.9327970537822</v>
       </c>
       <c r="T8" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0364052149085</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>297.0562124857547</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28011,22 +28011,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.9207765545704</v>
+        <v>31.38972821486027</v>
       </c>
       <c r="H10" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28056,22 +28056,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>193.7981713870603</v>
       </c>
       <c r="T10" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>181.2934698637407</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>2.38583356919825</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>24.43391804055158</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>91.97984867651562</v>
       </c>
       <c r="J5" t="n">
-        <v>128.8865178727436</v>
+        <v>202.4946418937401</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>303.4869768779021</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>376.5024309712531</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>418.9314987074825</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338304</v>
+        <v>425.710248335967</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>401.9861157822519</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>343.0858495426701</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044137</v>
+        <v>257.6431848457577</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>54.36718245810517</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>10.44398644916534</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1908666855358599</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>1.276533498840366</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>12.32862615985301</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>43.95082441182841</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>120.6044214847383</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649102</v>
+        <v>206.1321659070429</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478007</v>
+        <v>277.1701353512822</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983122</v>
+        <v>323.4444746842454</v>
       </c>
       <c r="N6" t="n">
-        <v>211.31907117367</v>
+        <v>332.0050874900653</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923047</v>
+        <v>303.7197925947077</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>243.7619099671574</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639065</v>
+        <v>162.9483813607457</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>79.25705355080804</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>23.71104985784626</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>5.145325813308317</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.08398246702897151</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>1.070202803888314</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>9.515075838207016</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>32.18391704784131</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>75.66333823490379</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>124.3381075790241</v>
       </c>
       <c r="L7" t="n">
-        <v>101.2724571246924</v>
+        <v>159.1099695889954</v>
       </c>
       <c r="M7" t="n">
-        <v>106.777606591725</v>
+        <v>167.7591540676927</v>
       </c>
       <c r="N7" t="n">
-        <v>104.2386737666594</v>
+        <v>163.7702163441091</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>151.2683017714137</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>129.436164572092</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>89.61489115104783</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>48.12020970937817</v>
       </c>
       <c r="S7" t="n">
-        <v>11.87105908695336</v>
+        <v>18.65071613685361</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>4.572684707522795</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.0583746983939081</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>2.38583356919825</v>
+        <v>3.865596161600136</v>
       </c>
       <c r="H8" t="n">
-        <v>24.43391804055158</v>
+        <v>39.5885366899874</v>
       </c>
       <c r="I8" t="n">
-        <v>91.97984867651562</v>
+        <v>149.0283960200894</v>
       </c>
       <c r="J8" t="n">
-        <v>202.4946418937401</v>
+        <v>328.0876422206098</v>
       </c>
       <c r="K8" t="n">
-        <v>303.4869768779021</v>
+        <v>491.7183277411436</v>
       </c>
       <c r="L8" t="n">
-        <v>376.5024309712531</v>
+        <v>610.0200662717139</v>
       </c>
       <c r="M8" t="n">
-        <v>418.9314987074825</v>
+        <v>678.7648620105703</v>
       </c>
       <c r="N8" t="n">
-        <v>425.710248335967</v>
+        <v>689.7479871047167</v>
       </c>
       <c r="O8" t="n">
-        <v>401.9861157822519</v>
+        <v>651.3094652728054</v>
       </c>
       <c r="P8" t="n">
-        <v>343.0858495426701</v>
+        <v>555.8775600333018</v>
       </c>
       <c r="Q8" t="n">
-        <v>257.6431848457577</v>
+        <v>417.4408974959969</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>242.8222548861147</v>
       </c>
       <c r="S8" t="n">
-        <v>54.36718245810517</v>
+        <v>88.08727253246317</v>
       </c>
       <c r="T8" t="n">
-        <v>10.44398644916534</v>
+        <v>16.9216471974046</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1908666855358599</v>
+        <v>0.3092476929280107</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.276533498840366</v>
+        <v>2.068276285897659</v>
       </c>
       <c r="H9" t="n">
-        <v>12.32862615985301</v>
+        <v>19.97519465590634</v>
       </c>
       <c r="I9" t="n">
-        <v>43.95082441182841</v>
+        <v>71.21038966796765</v>
       </c>
       <c r="J9" t="n">
-        <v>120.6044214847383</v>
+        <v>195.4067520812345</v>
       </c>
       <c r="K9" t="n">
-        <v>206.1321659070429</v>
+        <v>333.9812632363777</v>
       </c>
       <c r="L9" t="n">
-        <v>277.1701353512822</v>
+        <v>449.0790242691386</v>
       </c>
       <c r="M9" t="n">
-        <v>323.4444746842454</v>
+        <v>524.0540396329287</v>
       </c>
       <c r="N9" t="n">
-        <v>332.0050874900653</v>
+        <v>537.9241906905495</v>
       </c>
       <c r="O9" t="n">
-        <v>303.7197925947077</v>
+        <v>492.0955424609224</v>
       </c>
       <c r="P9" t="n">
-        <v>243.7619099671574</v>
+        <v>394.9500567342644</v>
       </c>
       <c r="Q9" t="n">
-        <v>162.9483813607457</v>
+        <v>264.0136536173924</v>
       </c>
       <c r="R9" t="n">
-        <v>79.25705355080804</v>
+        <v>128.4145574700319</v>
       </c>
       <c r="S9" t="n">
-        <v>23.71104985784626</v>
+        <v>38.41732487182711</v>
       </c>
       <c r="T9" t="n">
-        <v>5.145325813308317</v>
+        <v>8.336604854122578</v>
       </c>
       <c r="U9" t="n">
-        <v>0.08398246702897151</v>
+        <v>0.1360708082827408</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.070202803888314</v>
+        <v>1.733973360193177</v>
       </c>
       <c r="H10" t="n">
-        <v>9.515075838207016</v>
+        <v>15.41659951153571</v>
       </c>
       <c r="I10" t="n">
-        <v>32.18391704784131</v>
+        <v>52.14530795926391</v>
       </c>
       <c r="J10" t="n">
-        <v>75.66333823490379</v>
+        <v>122.5919165656576</v>
       </c>
       <c r="K10" t="n">
-        <v>124.3381075790241</v>
+        <v>201.4561776660799</v>
       </c>
       <c r="L10" t="n">
-        <v>159.1099695889954</v>
+        <v>257.7945484781747</v>
       </c>
       <c r="M10" t="n">
-        <v>167.7591540676927</v>
+        <v>271.8082059073722</v>
       </c>
       <c r="N10" t="n">
-        <v>163.7702163441091</v>
+        <v>265.3452142921069</v>
       </c>
       <c r="O10" t="n">
-        <v>151.2683017714137</v>
+        <v>245.0892527662138</v>
       </c>
       <c r="P10" t="n">
-        <v>129.436164572092</v>
+        <v>209.7161962182728</v>
       </c>
       <c r="Q10" t="n">
-        <v>89.61489115104783</v>
+        <v>145.1966238249032</v>
       </c>
       <c r="R10" t="n">
-        <v>48.12020970937817</v>
+        <v>77.96574763195864</v>
       </c>
       <c r="S10" t="n">
-        <v>18.65071613685361</v>
+        <v>30.21842664991199</v>
       </c>
       <c r="T10" t="n">
-        <v>4.572684707522795</v>
+        <v>7.408795266279935</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0583746983939081</v>
+        <v>0.0945803651014461</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31844,13 +31844,13 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138801</v>
       </c>
       <c r="M12" t="n">
         <v>593.9283018233474</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837931</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O12" t="n">
         <v>557.7086478970249</v>
@@ -32078,7 +32078,7 @@
         <v>221.4611312026437</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353163</v>
       </c>
       <c r="L15" t="n">
         <v>508.9565619138795</v>
@@ -32096,7 +32096,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
@@ -32315,7 +32315,7 @@
         <v>221.4611312026437</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353163</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
         <v>508.9565619138795</v>
@@ -32333,7 +32333,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I23" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32783,40 +32783,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K24" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O24" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32856,13 +32856,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32871,16 +32871,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32889,16 +32889,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I26" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J26" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T26" t="n">
         <v>19.1778794245112</v>
@@ -33020,40 +33020,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138801</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O27" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33093,13 +33093,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H28" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
@@ -33108,16 +33108,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M28" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P28" t="n">
         <v>237.6785118802169</v>
@@ -33126,16 +33126,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I29" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J29" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T29" t="n">
         <v>19.1778794245112</v>
@@ -33257,40 +33257,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O30" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970255</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33330,13 +33330,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H31" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
@@ -33345,16 +33345,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M31" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P31" t="n">
         <v>237.6785118802169</v>
@@ -33363,16 +33363,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I32" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J32" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T32" t="n">
         <v>19.1778794245112</v>
@@ -33494,40 +33494,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026444</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O33" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33567,13 +33567,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H34" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
@@ -33582,16 +33582,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M34" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P34" t="n">
         <v>237.6785118802169</v>
@@ -33600,16 +33600,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33977,7 +33977,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138801</v>
       </c>
       <c r="M39" t="n">
         <v>593.9283018233474</v>
@@ -34208,7 +34208,7 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026444</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
@@ -34229,7 +34229,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I44" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T44" t="n">
         <v>19.1778794245112</v>
@@ -34442,40 +34442,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002933</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34515,13 +34515,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
@@ -34530,16 +34530,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P46" t="n">
         <v>237.6785118802169</v>
@@ -34548,16 +34548,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34781,19 +34781,19 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>365.2844632307148</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>515.9012490932192</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>21.44873736705384</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>407.5425384040863</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>384.8407587688567</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>638.0987989730422</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>196.2971847393761</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>552.6880856233105</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>433.6515619588832</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.9975062898689</v>
+        <v>35.33749497130819</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>509.4561008748672</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>181.3104407622271</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>368.6268117378473</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>554.9858674269929</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>428.2502711927643</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535667</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,25 +35094,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>102.0686157531412</v>
       </c>
       <c r="L7" t="n">
-        <v>128.8624823850085</v>
+        <v>186.6999948493115</v>
       </c>
       <c r="M7" t="n">
-        <v>146.3614835535656</v>
+        <v>207.3430310295333</v>
       </c>
       <c r="N7" t="n">
-        <v>148.370846145888</v>
+        <v>207.9023887233377</v>
       </c>
       <c r="O7" t="n">
-        <v>120.8664146557981</v>
+        <v>175.8534296854534</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>126.7147238369855</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>3.452847899353443</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>21.44873736705384</v>
+        <v>147.0417376939235</v>
       </c>
       <c r="K8" t="n">
-        <v>83.39712583292157</v>
+        <v>271.6284766961631</v>
       </c>
       <c r="L8" t="n">
-        <v>558.3972305517163</v>
+        <v>374.2536513017266</v>
       </c>
       <c r="M8" t="n">
-        <v>351.3408153493633</v>
+        <v>448.4186287832975</v>
       </c>
       <c r="N8" t="n">
-        <v>633.6441091513602</v>
+        <v>460.3349235081258</v>
       </c>
       <c r="O8" t="n">
-        <v>552.6880856233105</v>
+        <v>421.2112538511186</v>
       </c>
       <c r="P8" t="n">
-        <v>433.6515619588832</v>
+        <v>324.6445642780323</v>
       </c>
       <c r="Q8" t="n">
-        <v>35.33749497130819</v>
+        <v>195.1352076215474</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>27.23671707198258</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>119.8578301584805</v>
+        <v>68.56912541456785</v>
       </c>
       <c r="K9" t="n">
-        <v>332.7559639452625</v>
+        <v>196.1398242620187</v>
       </c>
       <c r="L9" t="n">
-        <v>509.4561008748672</v>
+        <v>310.5246444892645</v>
       </c>
       <c r="M9" t="n">
-        <v>439.4933346707109</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="N9" t="n">
-        <v>200.663375406732</v>
+        <v>406.5824786072162</v>
       </c>
       <c r="O9" t="n">
-        <v>554.9858674269929</v>
+        <v>491.2565445879994</v>
       </c>
       <c r="P9" t="n">
-        <v>428.2502711927643</v>
+        <v>260.9756493199342</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.96660727472423</v>
+        <v>124.0318795313709</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>29.23273644898481</v>
       </c>
       <c r="K10" t="n">
-        <v>102.0686157531412</v>
+        <v>179.1866858401971</v>
       </c>
       <c r="L10" t="n">
-        <v>186.6999948493115</v>
+        <v>285.3845737384909</v>
       </c>
       <c r="M10" t="n">
-        <v>207.3430310295333</v>
+        <v>311.3920828692128</v>
       </c>
       <c r="N10" t="n">
-        <v>207.9023887233377</v>
+        <v>309.4773866713355</v>
       </c>
       <c r="O10" t="n">
-        <v>175.8534296854534</v>
+        <v>269.6743806802535</v>
       </c>
       <c r="P10" t="n">
-        <v>126.7147238369855</v>
+        <v>206.9947554831663</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.452847899353443</v>
+        <v>59.0345805732088</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35410,7 +35410,7 @@
         <v>190.7870009687125</v>
       </c>
       <c r="K11" t="n">
-        <v>470.4443441954267</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L11" t="n">
         <v>873.2513289427824</v>
@@ -35422,7 +35422,7 @@
         <v>989.6487598248955</v>
       </c>
       <c r="O11" t="n">
-        <v>508.053000888219</v>
+        <v>641.306058528246</v>
       </c>
       <c r="P11" t="n">
         <v>398.7619862193716</v>
@@ -35492,13 +35492,13 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340053</v>
+        <v>370.402182134006</v>
       </c>
       <c r="M12" t="n">
         <v>451.7942679013291</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004598</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O12" t="n">
         <v>415.1124034525805</v>
@@ -35647,13 +35647,13 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K14" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923319</v>
+        <v>674.9245771183487</v>
       </c>
       <c r="M14" t="n">
-        <v>883.6236994779111</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N14" t="n">
         <v>552.3018354129113</v>
@@ -35726,7 +35726,7 @@
         <v>94.62350453597705</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609573</v>
       </c>
       <c r="L15" t="n">
         <v>370.4021821340053</v>
@@ -35744,7 +35744,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35887,22 +35887,22 @@
         <v>661.3366991265651</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923319</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M17" t="n">
-        <v>883.6236994779111</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129113</v>
+        <v>563.9433698487007</v>
       </c>
       <c r="O17" t="n">
         <v>508.053000888219</v>
       </c>
       <c r="P17" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q17" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R17" t="n">
         <v>125.3296184152072</v>
@@ -35963,7 +35963,7 @@
         <v>94.62350453597705</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609573</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
         <v>370.4021821340053</v>
@@ -35981,7 +35981,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K20" t="n">
-        <v>625.2391015115044</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923319</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302265</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O20" t="n">
-        <v>888.8531821509644</v>
+        <v>641.306058528246</v>
       </c>
       <c r="P20" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q20" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R20" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L23" t="n">
-        <v>625.7042053200619</v>
+        <v>625.7042053200632</v>
       </c>
       <c r="M23" t="n">
-        <v>988.4346493230593</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N23" t="n">
-        <v>989.6487598248956</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O23" t="n">
-        <v>888.8531821509645</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K24" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L25" t="n">
         <v>319.7573721701981</v>
@@ -36528,13 +36528,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P25" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K26" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L26" t="n">
-        <v>800.292698040015</v>
+        <v>625.7042053200624</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302268</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O26" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P26" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q26" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R26" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340054</v>
+        <v>370.402182134006</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P27" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K28" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L28" t="n">
         <v>319.7573721701981</v>
@@ -36765,13 +36765,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O28" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P28" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q28" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L29" t="n">
-        <v>625.7042053200628</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M29" t="n">
-        <v>988.4346493230593</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N29" t="n">
-        <v>989.6487598248956</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O29" t="n">
-        <v>888.8531821509645</v>
+        <v>641.306058528246</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525811</v>
       </c>
       <c r="P30" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,10 +36987,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K31" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L31" t="n">
         <v>319.7573721701981</v>
@@ -37002,13 +37002,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O31" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P31" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q31" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K32" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L32" t="n">
-        <v>616.6425541386595</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M32" t="n">
-        <v>988.4346493230593</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N32" t="n">
-        <v>989.6487598248956</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O32" t="n">
-        <v>508.0530008882191</v>
+        <v>641.306058528246</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R32" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597767</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P33" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,10 +37224,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K34" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L34" t="n">
         <v>319.7573721701981</v>
@@ -37239,13 +37239,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O34" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P34" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q34" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37309,19 +37309,19 @@
         <v>337.1912865554004</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923319</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M35" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O35" t="n">
-        <v>727.3874636142359</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P35" t="n">
-        <v>720.5606943908542</v>
+        <v>534.4005516472693</v>
       </c>
       <c r="Q35" t="n">
         <v>463.1092954636241</v>
@@ -37540,16 +37540,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K38" t="n">
-        <v>585.9925604359282</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L38" t="n">
-        <v>873.2513289427824</v>
+        <v>800.2926980400166</v>
       </c>
       <c r="M38" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N38" t="n">
         <v>552.3018354129113</v>
@@ -37561,10 +37561,10 @@
         <v>720.5606943908542</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37625,7 +37625,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340053</v>
+        <v>370.402182134006</v>
       </c>
       <c r="M39" t="n">
         <v>451.7942679013291</v>
@@ -37777,28 +37777,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923319</v>
+        <v>800.2926980400166</v>
       </c>
       <c r="M41" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N41" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O41" t="n">
-        <v>671.4521450342306</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P41" t="n">
         <v>720.5606943908542</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R41" t="n">
         <v>125.3296184152072</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597767</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
@@ -37877,7 +37877,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38017,25 +38017,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K44" t="n">
-        <v>661.3366991265651</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
-        <v>658.5917657258321</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>508.053000888219</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P44" t="n">
-        <v>720.5606943908542</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R44" t="n">
         <v>125.3296184152072</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859631</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,10 +38172,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K46" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L46" t="n">
         <v>319.7573721701981</v>
@@ -38187,13 +38187,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O46" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P46" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_8_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_8_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1881450.768689676</v>
+        <v>1877145.052313605</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283188</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -673,10 +673,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>114.3878208327519</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -709,13 +709,13 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>20.14532219379995</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -724,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -828,10 +828,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>59.7268375758684</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>205.1478855987996</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -898,25 +898,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>223.3241432386771</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,16 +943,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>30.5182125876528</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1053,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1110,19 +1110,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>101.780687729549</v>
       </c>
       <c r="V7" t="n">
-        <v>155.4526127311943</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>220.5438776867911</v>
+        <v>106.8183207713284</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1290,31 +1290,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H10" t="n">
-        <v>152.7120966692326</v>
+        <v>35.4652731219028</v>
       </c>
       <c r="I10" t="n">
-        <v>123.266557879417</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>17.69584188176898</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>194.4749535477948</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695349</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1539,16 +1539,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>102.7673426709131</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1593,10 +1593,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>193.7763380130554</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1618,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881266</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1767,25 +1767,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>28.75188085812011</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>9.795251606876045</v>
       </c>
     </row>
     <row r="17">
@@ -1849,7 +1849,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2007,22 +2007,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>5.623597659135752</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2067,10 +2067,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2241,25 +2241,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>75.12653431054498</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>43.73846614325492</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2478,25 +2478,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>27.0291980517616</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>21.63824106824964</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2715,25 +2715,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>130.1208074460236</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2778,10 +2778,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>112.7304175246786</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2806,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -3192,7 +3192,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>27.0291980517616</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3201,13 +3201,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3246,7 +3246,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>194.9085394018862</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3271,7 +3271,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3432,19 +3432,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>18.7084378797731</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3480,7 +3480,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>73.44478684180609</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444144</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3666,10 +3666,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>212.5602966632236</v>
+        <v>223.8290352905946</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3906,7 +3906,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3915,10 +3915,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3951,7 +3951,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>170.9457618790573</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>96.99837838564358</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4137,13 +4137,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4191,13 +4191,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>167.8665265586168</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1491.915471247702</v>
+        <v>2149.375138862102</v>
       </c>
       <c r="C2" t="n">
-        <v>1491.915471247702</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="D2" t="n">
-        <v>1133.649772640952</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E2" t="n">
-        <v>747.8615200427075</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F2" t="n">
-        <v>336.8756152531</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>322.9522111916909</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4330,10 +4330,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
         <v>881.2824271224075</v>
@@ -4357,25 +4357,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2621.771591251948</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2403.136924224011</v>
       </c>
       <c r="U2" t="n">
-        <v>2642.120401548716</v>
+        <v>2149.375138862102</v>
       </c>
       <c r="V2" t="n">
-        <v>2642.120401548716</v>
+        <v>2149.375138862102</v>
       </c>
       <c r="W2" t="n">
-        <v>2642.120401548716</v>
+        <v>2149.375138862102</v>
       </c>
       <c r="X2" t="n">
-        <v>2268.654643287636</v>
+        <v>2149.375138862102</v>
       </c>
       <c r="Y2" t="n">
-        <v>1878.515311311824</v>
+        <v>2149.375138862102</v>
       </c>
     </row>
     <row r="3">
@@ -4409,25 +4409,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>520.9088977430002</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C4" t="n">
-        <v>351.9727148150933</v>
+        <v>559.1928012785273</v>
       </c>
       <c r="D4" t="n">
-        <v>201.8560754027576</v>
+        <v>409.0761618661916</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>261.1630682837985</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>114.2731207858881</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4533,7 +4533,7 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>520.9088977430002</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="5">
@@ -4543,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1241.158393318536</v>
+        <v>1970.914677487028</v>
       </c>
       <c r="C5" t="n">
-        <v>1241.158393318536</v>
+        <v>1601.952160546617</v>
       </c>
       <c r="D5" t="n">
-        <v>882.8926947117852</v>
+        <v>1243.686461939866</v>
       </c>
       <c r="E5" t="n">
-        <v>882.8926947117852</v>
+        <v>857.8982093416219</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>446.9123045520143</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>432.9889004906052</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2611.29392418745</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2357.532138825542</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>2357.532138825542</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W5" t="n">
-        <v>2004.763483555427</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X5" t="n">
-        <v>1631.297725294347</v>
+        <v>1970.914677487028</v>
       </c>
       <c r="Y5" t="n">
-        <v>1241.158393318536</v>
+        <v>1970.914677487028</v>
       </c>
     </row>
     <row r="6">
@@ -4646,22 +4646,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
@@ -4701,7 +4701,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>438.9553738610024</v>
+        <v>625.3202087220412</v>
       </c>
       <c r="V7" t="n">
-        <v>281.9325327183818</v>
+        <v>625.3202087220412</v>
       </c>
       <c r="W7" t="n">
-        <v>281.9325327183818</v>
+        <v>625.3202087220412</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036445</v>
+        <v>625.3202087220412</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>404.5276295785111</v>
       </c>
     </row>
     <row r="8">
@@ -4780,49 +4780,49 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1920.409918978289</v>
+        <v>1685.842648463791</v>
       </c>
       <c r="C8" t="n">
-        <v>1551.447402037877</v>
+        <v>1316.880131523379</v>
       </c>
       <c r="D8" t="n">
-        <v>1193.181703431127</v>
+        <v>958.6144329166289</v>
       </c>
       <c r="E8" t="n">
-        <v>807.3934508328825</v>
+        <v>572.8261803183846</v>
       </c>
       <c r="F8" t="n">
-        <v>396.407546043275</v>
+        <v>161.840275528777</v>
       </c>
       <c r="G8" t="n">
-        <v>173.6359524202537</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>173.6359524202537</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>242.5828808341008</v>
+        <v>75.17723181374775</v>
       </c>
       <c r="K8" t="n">
-        <v>646.0499938541462</v>
+        <v>157.7403863883401</v>
       </c>
       <c r="L8" t="n">
-        <v>1198.863252100346</v>
+        <v>710.5536446345393</v>
       </c>
       <c r="M8" t="n">
-        <v>1385.562664925753</v>
+        <v>1342.271455617851</v>
       </c>
       <c r="N8" t="n">
-        <v>2012.8703329856</v>
+        <v>1969.579123677698</v>
       </c>
       <c r="O8" t="n">
-        <v>2551.430645747101</v>
+        <v>2341.238804993795</v>
       </c>
       <c r="P8" t="n">
-        <v>2662.164970996627</v>
+        <v>2451.973130243322</v>
       </c>
       <c r="Q8" t="n">
         <v>2697.149091018222</v>
@@ -4831,25 +4831,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2540.93405351505</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2326.134191782762</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2072.442488527913</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018222</v>
+        <v>2072.442488527913</v>
       </c>
       <c r="W8" t="n">
-        <v>2697.149091018222</v>
+        <v>2072.442488527913</v>
       </c>
       <c r="X8" t="n">
-        <v>2697.149091018222</v>
+        <v>2072.442488527913</v>
       </c>
       <c r="Y8" t="n">
-        <v>2307.009759042411</v>
+        <v>2072.442488527913</v>
       </c>
     </row>
     <row r="9">
@@ -4889,13 +4889,13 @@
         <v>502.03063798307</v>
       </c>
       <c r="L9" t="n">
-        <v>639.260235998764</v>
+        <v>975.0527656697138</v>
       </c>
       <c r="M9" t="n">
-        <v>1279.805585465869</v>
+        <v>1154.550102024319</v>
       </c>
       <c r="N9" t="n">
-        <v>1478.462327118533</v>
+        <v>1822.094502051329</v>
       </c>
       <c r="O9" t="n">
         <v>1981.606814720089</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>519.5200702335426</v>
+        <v>872.2291984494694</v>
       </c>
       <c r="C10" t="n">
-        <v>350.5838873056357</v>
+        <v>703.2930155215626</v>
       </c>
       <c r="D10" t="n">
-        <v>350.5838873056357</v>
+        <v>553.1763761092268</v>
       </c>
       <c r="E10" t="n">
-        <v>350.5838873056357</v>
+        <v>405.2632825268337</v>
       </c>
       <c r="F10" t="n">
-        <v>350.5838873056357</v>
+        <v>258.3733350289233</v>
       </c>
       <c r="G10" t="n">
-        <v>350.5838873056357</v>
+        <v>89.76649002430668</v>
       </c>
       <c r="H10" t="n">
-        <v>196.3292442054008</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>71.81756957972706</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4986,28 +4986,28 @@
         <v>1053.877663279709</v>
       </c>
       <c r="R10" t="n">
-        <v>923.3997019991118</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="S10" t="n">
-        <v>715.9594172515172</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="T10" t="n">
-        <v>519.5200702335426</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="U10" t="n">
-        <v>519.5200702335426</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="V10" t="n">
-        <v>519.5200702335426</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="W10" t="n">
-        <v>519.5200702335426</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="X10" t="n">
-        <v>519.5200702335426</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="Y10" t="n">
-        <v>519.5200702335426</v>
+        <v>1053.877663279709</v>
       </c>
     </row>
     <row r="11">
@@ -5032,40 +5032,40 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111714</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
         <v>4606.285157492578</v>
@@ -5114,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273898</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803936</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>245.2306927803936</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L12" t="n">
-        <v>740.5562989961522</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M12" t="n">
-        <v>740.5562989961522</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>948.5505208511905</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C13" t="n">
-        <v>779.6143379232836</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232836</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>446.9048623224643</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910803</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570811</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279796</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853355</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580255</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832657</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487561</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510502</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.3858538547</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648813</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611853</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X13" t="n">
-        <v>948.5505208511905</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y13" t="n">
-        <v>948.5505208511905</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="14">
@@ -5260,67 +5260,67 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111714</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5351,28 +5351,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756265</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756265</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>738.7889117913851</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1336.167399417937</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1963.765362972543</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>2515.67509321183</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,37 +5412,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>724.7519863413023</v>
       </c>
       <c r="C16" t="n">
-        <v>513.8536007400712</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="D16" t="n">
-        <v>513.8536007400712</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E16" t="n">
-        <v>513.8536007400712</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5481,7 +5481,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>906.400451171542</v>
       </c>
     </row>
     <row r="17">
@@ -5503,7 +5503,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5512,13 +5512,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5527,16 +5527,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5591,31 +5591,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>245.2306927803938</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>245.2306927803938</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>842.6091804069456</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1470.207143961552</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>2022.116874200839</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2445.740023695907</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>962.6357307816191</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>793.6995478537123</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>643.5829084413765</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>495.6698148589834</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>348.779867361073</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>181.5837680759529</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1144.284195611859</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1144.284195611859</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5743,19 +5743,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5764,16 +5764,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5831,28 +5831,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>923.0670414349513</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1540.888753373306</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>2092.798483612593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>696.7084350851671</v>
+        <v>719.5738700011939</v>
       </c>
       <c r="C22" t="n">
-        <v>620.8230468926974</v>
+        <v>550.637687073287</v>
       </c>
       <c r="D22" t="n">
-        <v>470.7064074803617</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E22" t="n">
-        <v>322.7933138979686</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>175.9033664000582</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000582</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832663</v>
+        <v>2402.78281474869</v>
       </c>
       <c r="T22" t="n">
-        <v>2160.315914855604</v>
+        <v>2183.181349771631</v>
       </c>
       <c r="U22" t="n">
-        <v>1871.240688199802</v>
+        <v>1894.106123115829</v>
       </c>
       <c r="V22" t="n">
-        <v>1616.556199993915</v>
+        <v>1639.421634909942</v>
       </c>
       <c r="W22" t="n">
-        <v>1327.139029956954</v>
+        <v>1350.004464872981</v>
       </c>
       <c r="X22" t="n">
-        <v>1099.149479058937</v>
+        <v>1122.014913974964</v>
       </c>
       <c r="Y22" t="n">
-        <v>878.3568999154069</v>
+        <v>901.2223348314336</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
@@ -5998,19 +5998,19 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6022,19 +6022,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6083,10 +6083,10 @@
         <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121648</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121648</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121648</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121648</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6171,28 +6171,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2425.106274420413</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2242.251440075317</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>2022.649975098258</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1733.574748442456</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1478.890260236569</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1189.473090199608</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>961.4835393015907</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>740.6909601580605</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
@@ -6259,19 +6259,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6302,22 +6302,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356194</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232836</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408905</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>366.9636532421613</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6408,28 +6408,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1683.601903741513</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1394.184733704552</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>1394.184733704552</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6439,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004712</v>
@@ -6451,10 +6451,10 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
@@ -6481,10 +6481,10 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6496,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6554,16 +6554,16 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1670.092171589158</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>2222.001901828445</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362683</v>
@@ -6733,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6782,22 +6782,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>352.5519571452613</v>
       </c>
       <c r="M33" t="n">
-        <v>1268.578514636218</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N33" t="n">
-        <v>1896.176478190824</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190824</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D34" t="n">
-        <v>317.6151975578601</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E34" t="n">
-        <v>317.6151975578601</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F34" t="n">
-        <v>317.6151975578601</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6894,16 +6894,16 @@
         <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6913,46 +6913,46 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6970,19 +6970,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7019,25 +7019,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1336.167399417937</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1963.765362972544</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>2515.675093211831</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400717</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121648</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D37" t="n">
-        <v>194.8007783998291</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E37" t="n">
-        <v>175.9033664000582</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F37" t="n">
-        <v>175.9033664000582</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G37" t="n">
-        <v>175.9033664000582</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1970.320130882545</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.70136564882</v>
+        <v>1715.635642676658</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611859</v>
+        <v>1426.218472639697</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138415</v>
+        <v>1198.22892174168</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703114</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="38">
@@ -7153,70 +7153,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362692</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,10 +7247,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
         <v>243.4633055756266</v>
@@ -7265,16 +7265,16 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1859.536823237711</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,13 +7308,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>874.8686257536381</v>
+        <v>576.8388927589092</v>
       </c>
       <c r="C40" t="n">
-        <v>705.9324428257312</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D40" t="n">
-        <v>555.8158034133954</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E40" t="n">
         <v>407.9027098310023</v>
@@ -7323,61 +7323,61 @@
         <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>2049.400878868273</v>
+        <v>1751.371145873544</v>
       </c>
       <c r="V40" t="n">
-        <v>1794.716390662386</v>
+        <v>1496.686657667657</v>
       </c>
       <c r="W40" t="n">
-        <v>1505.299220625425</v>
+        <v>1207.269487630696</v>
       </c>
       <c r="X40" t="n">
-        <v>1277.309669727408</v>
+        <v>979.2799367326791</v>
       </c>
       <c r="Y40" t="n">
-        <v>1056.517090583878</v>
+        <v>758.4873575891489</v>
       </c>
     </row>
     <row r="41">
@@ -7399,16 +7399,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111715</v>
@@ -7426,13 +7426,13 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7484,34 +7484,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1336.167399417937</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1963.765362972544</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>636.6680198981028</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C43" t="n">
-        <v>467.7318369701959</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D43" t="n">
-        <v>317.6151975578601</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E43" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7599,22 +7599,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y43" t="n">
-        <v>818.3164847283425</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="44">
@@ -7654,16 +7654,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7724,28 +7724,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L45" t="n">
-        <v>119.290296770379</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M45" t="n">
-        <v>716.6687843969308</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951538</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7782,13 +7782,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>700.7543264856228</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>700.7543264856228</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>550.637687073287</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
         <v>402.7245934908939</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1331.18492135741</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>1103.195370459393</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>882.4027913158625</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8066,7 +8066,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>346.2692436516223</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8218,7 +8218,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711646</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8306,13 +8306,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>275.0442842992664</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8452,28 +8452,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N8" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O8" t="n">
-        <v>372.1124115601428</v>
+        <v>203.5259151506442</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8537,16 +8537,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>339.1843734049999</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>473.6238973478236</v>
       </c>
       <c r="O9" t="n">
-        <v>347.1032070028236</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -9646,7 +9646,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>-1.591615728102624e-12</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -10129,7 +10129,7 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>-1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>-1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23427,13 +23427,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>42.65370535201814</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23481,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>31.9333173759818</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23655,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>116.6691671648111</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>208.7894017452188</v>
       </c>
     </row>
     <row r="17">
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>134.6711151870881</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23955,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24129,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>92.12028678808285</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>137.2878198583897</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24366,25 +24366,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>138.4949402405072</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>44.73700564187202</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24603,25 +24603,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>35.40333084624521</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24666,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>105.8542358274162</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -25080,7 +25080,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>121.5862749664508</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25089,13 +25089,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25134,7 +25134,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>57.22910392194183</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25320,19 +25320,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>127.7255247667961</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25368,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>212.7396875474381</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25554,10 +25554,10 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>73.62417772602058</v>
+        <v>62.35543909864955</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25678,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25794,7 +25794,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25803,10 +25803,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25839,7 +25839,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>46.45968844823099</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>121.5862749664512</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26025,13 +26025,13 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26079,13 +26079,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>118.6564717779742</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>872562.1463868552</v>
+        <v>872562.1463868553</v>
       </c>
     </row>
     <row r="6">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>872562.1463868554</v>
+        <v>872562.1463868553</v>
       </c>
     </row>
     <row r="11">
@@ -26313,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554203.1946583913</v>
+        <v>554203.1946583912</v>
       </c>
       <c r="C2" t="n">
-        <v>554203.1946583912</v>
+        <v>554203.1946583909</v>
       </c>
       <c r="D2" t="n">
         <v>554203.1946583914</v>
@@ -26325,37 +26325,37 @@
         <v>544823.9547907539</v>
       </c>
       <c r="F2" t="n">
-        <v>544823.954790754</v>
+        <v>544823.9547907538</v>
       </c>
       <c r="G2" t="n">
         <v>544823.9547907538</v>
       </c>
       <c r="H2" t="n">
+        <v>544823.954790754</v>
+      </c>
+      <c r="I2" t="n">
+        <v>544823.9547907542</v>
+      </c>
+      <c r="J2" t="n">
+        <v>544823.954790754</v>
+      </c>
+      <c r="K2" t="n">
+        <v>544823.9547907542</v>
+      </c>
+      <c r="L2" t="n">
         <v>544823.9547907541</v>
       </c>
-      <c r="I2" t="n">
+      <c r="M2" t="n">
         <v>544823.954790754</v>
       </c>
-      <c r="J2" t="n">
-        <v>544823.9547907541</v>
-      </c>
-      <c r="K2" t="n">
-        <v>544823.9547907538</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
         <v>544823.954790754</v>
       </c>
-      <c r="M2" t="n">
-        <v>544823.9547907539</v>
-      </c>
-      <c r="N2" t="n">
-        <v>544823.9547907544</v>
-      </c>
       <c r="O2" t="n">
-        <v>544823.9547907539</v>
+        <v>544823.954790754</v>
       </c>
       <c r="P2" t="n">
-        <v>544823.9547907539</v>
+        <v>544823.954790754</v>
       </c>
     </row>
     <row r="3">
@@ -26374,19 +26374,19 @@
         <v>184756.2785481116</v>
       </c>
       <c r="E3" t="n">
-        <v>771052.691380806</v>
+        <v>771052.6913808064</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>4.781995812663809e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
         <v>176423.219192593</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>124208.5107080584</v>
+        <v>124208.5107080585</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,10 +26426,10 @@
         <v>176266.9759012793</v>
       </c>
       <c r="E4" t="n">
+        <v>5677.536566682745</v>
+      </c>
+      <c r="F4" t="n">
         <v>5677.536566682744</v>
-      </c>
-      <c r="F4" t="n">
-        <v>5677.536566682837</v>
       </c>
       <c r="G4" t="n">
         <v>5677.536566682745</v>
@@ -26438,25 +26438,25 @@
         <v>5677.536566682744</v>
       </c>
       <c r="I4" t="n">
-        <v>5677.536566682719</v>
+        <v>5677.536566682744</v>
       </c>
       <c r="J4" t="n">
         <v>5677.536566682744</v>
       </c>
       <c r="K4" t="n">
-        <v>5677.536566682726</v>
+        <v>5677.536566682744</v>
       </c>
       <c r="L4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="M4" t="n">
-        <v>5677.536566682721</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="N4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="O4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="P4" t="n">
         <v>5677.536566682745</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-328546.1780825959</v>
+        <v>-328546.178082596</v>
       </c>
       <c r="C6" t="n">
-        <v>261421.7011319484</v>
+        <v>261421.7011319481</v>
       </c>
       <c r="D6" t="n">
         <v>105617.8950381537</v>
       </c>
       <c r="E6" t="n">
-        <v>-333028.802980642</v>
+        <v>-333376.1822349993</v>
       </c>
       <c r="F6" t="n">
-        <v>438023.8884001641</v>
+        <v>437676.509145807</v>
       </c>
       <c r="G6" t="n">
-        <v>438023.8884001634</v>
+        <v>437676.509145807</v>
       </c>
       <c r="H6" t="n">
-        <v>438023.8884001643</v>
+        <v>437676.5091458072</v>
       </c>
       <c r="I6" t="n">
-        <v>438023.8884001641</v>
+        <v>437676.5091458073</v>
       </c>
       <c r="J6" t="n">
-        <v>261600.6692075713</v>
+        <v>261253.2899532142</v>
       </c>
       <c r="K6" t="n">
-        <v>438023.8884001639</v>
+        <v>437676.5091458074</v>
       </c>
       <c r="L6" t="n">
-        <v>438023.8884001641</v>
+        <v>437676.5091458073</v>
       </c>
       <c r="M6" t="n">
-        <v>313815.3776921057</v>
+        <v>313467.9984377487</v>
       </c>
       <c r="N6" t="n">
-        <v>438023.8884001645</v>
+        <v>437676.5091458073</v>
       </c>
       <c r="O6" t="n">
-        <v>438023.8884001641</v>
+        <v>437676.5091458072</v>
       </c>
       <c r="P6" t="n">
-        <v>438023.888400164</v>
+        <v>437676.5091458072</v>
       </c>
     </row>
   </sheetData>
@@ -26740,7 +26740,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>593.4761003380651</v>
@@ -26825,7 +26825,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26968,19 +26968,19 @@
         <v>215.7324361209784</v>
       </c>
       <c r="E3" t="n">
-        <v>774.4994000036085</v>
+        <v>774.4994000036087</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>498.4210153450923</v>
+        <v>498.4210153450928</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450923</v>
+        <v>498.4210153450928</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450923</v>
+        <v>498.4210153450928</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27378,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27393,10 +27393,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>209.5349519316053</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,13 +27429,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>154.2703906151716</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27444,10 +27444,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27548,10 +27548,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>107.5829646831825</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>13.43676775329516</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27618,25 +27618,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>100.5986295256801</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,16 +27663,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>185.930107770005</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27684,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27773,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27830,19 +27830,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>184.5011865124287</v>
       </c>
       <c r="V7" t="n">
-        <v>96.68503059263367</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>192.3730262591457</v>
+        <v>306.0985831746084</v>
       </c>
       <c r="H8" t="n">
         <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27921,7 +27921,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28010,31 +28010,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>117.2468235473297</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28058,13 +28058,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T10" t="n">
-        <v>28.8979511729639</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U10" t="n">
         <v>286.260654658097</v>
@@ -28140,7 +28140,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>1.818989403545856e-12</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -28280,7 +28280,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>-4.607383483383325e-12</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -28383,7 +28383,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>2.046363078989089e-12</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31752,37 +31752,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31791,10 +31791,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31837,40 +31837,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420754</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>704.1404939038101</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214697</v>
+        <v>322.8964653704906</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31916,28 +31916,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31989,37 +31989,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32028,10 +32028,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32077,25 +32077,25 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071783</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>171.7382405950826</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32104,10 +32104,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32153,28 +32153,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32183,7 +32183,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>211.3773391483997</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>151.9914336104071</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32803,13 +32803,13 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
-        <v>156.3072281639545</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33022,7 +33022,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33037,10 +33037,10 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33274,19 +33274,19 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>164.9290651940687</v>
       </c>
       <c r="P30" t="n">
-        <v>431.3680753731354</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742439</v>
@@ -33502,25 +33502,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>248.7449369209194</v>
       </c>
       <c r="M33" t="n">
-        <v>339.9772972286967</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
         <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33739,7 +33739,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473073</v>
@@ -33751,16 +33751,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>164.9290651940687</v>
       </c>
       <c r="P36" t="n">
-        <v>134.7284881171895</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742439</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
@@ -33976,37 +33976,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>322.6999460717711</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>370.9642309107746</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34213,7 +34213,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
@@ -34225,16 +34225,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
-        <v>134.7284881171895</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34444,16 +34444,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>162.5000833330458</v>
+        <v>248.7449369209195</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34468,7 +34468,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34786,7 +34786,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>410.0055067279162</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
         <v>559.3197334338902</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343417</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,13 +35026,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>296.2227415328939</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.5453525391276</v>
+        <v>21.44873736705384</v>
       </c>
       <c r="K8" t="n">
-        <v>407.5425384040863</v>
+        <v>83.39712583292157</v>
       </c>
       <c r="L8" t="n">
         <v>558.3972305517163</v>
       </c>
       <c r="M8" t="n">
-        <v>188.5852654802098</v>
+        <v>638.0987989730422</v>
       </c>
       <c r="N8" t="n">
         <v>633.6441091513602</v>
       </c>
       <c r="O8" t="n">
-        <v>544.000315920708</v>
+        <v>375.4138195112093</v>
       </c>
       <c r="P8" t="n">
         <v>111.8528537874005</v>
       </c>
       <c r="Q8" t="n">
-        <v>35.33749497130819</v>
+        <v>247.6524856312129</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35257,16 +35257,16 @@
         <v>332.7559639452625</v>
       </c>
       <c r="L9" t="n">
-        <v>138.615755571408</v>
+        <v>477.8001289764079</v>
       </c>
       <c r="M9" t="n">
-        <v>647.0155045122269</v>
+        <v>181.3104407622271</v>
       </c>
       <c r="N9" t="n">
-        <v>200.663375406732</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="O9" t="n">
-        <v>508.2267551530869</v>
+        <v>161.1235481502633</v>
       </c>
       <c r="P9" t="n">
         <v>428.2502711927643</v>
@@ -35406,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774901</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754087</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>572.7987818204768</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071394</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35576,19 +35576,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001039</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,31 +35643,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396419</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35725,25 +35725,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.937336923845</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>37.76383318075232</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35813,19 +35813,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>71.39556506237817</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>20.64972152707382</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36366,7 +36366,7 @@
         <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902934</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193518</v>
@@ -36381,7 +36381,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36451,13 +36451,13 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
-        <v>22.33282074962425</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36685,10 +36685,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36849,13 +36849,13 @@
         <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683802</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36922,19 +36922,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>22.33282074962425</v>
       </c>
       <c r="P30" t="n">
-        <v>297.3936679588052</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37150,25 +37150,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>110.1905571410452</v>
       </c>
       <c r="M33" t="n">
-        <v>197.8432633066783</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
         <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37305,7 +37305,7 @@
         <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
         <v>479.4543240367771</v>
@@ -37387,7 +37387,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.3288951674331</v>
@@ -37399,16 +37399,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>22.33282074962425</v>
       </c>
       <c r="P36" t="n">
-        <v>0.7540807028592577</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37627,25 +37627,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>191.3582339884378</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>228.3679864663302</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37803,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,7 +37861,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
@@ -37873,16 +37873,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
-        <v>0.7540807028592577</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38092,16 +38092,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>23.94570355317166</v>
+        <v>110.1905571410453</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38116,7 +38116,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_8_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_8_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1877145.052313605</v>
+        <v>1878905.58261639</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283186</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -676,10 +676,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>7.130758887765257</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,10 +706,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>20.14532219379995</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -718,7 +718,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -831,7 +831,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>59.7268375758684</v>
+        <v>59.72683757586863</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -904,19 +904,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>5.983388191319829</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>223.3241432386771</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -955,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -964,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1053,19 +1053,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>30.60408762095429</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>101.780687729549</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1147,7 +1147,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>106.8183207713284</v>
+        <v>12.9169039459368</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1183,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>326.123014634745</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1302,19 +1302,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>35.4652731219028</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1356,10 +1356,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>111.5266024655407</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1423,10 +1423,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1539,7 +1539,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>102.7673426709131</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>141.5502843483913</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1618,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1660,7 +1660,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1770,7 +1770,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1782,7 +1782,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1827,13 +1827,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>9.795251606876045</v>
+        <v>7.408064079030886</v>
       </c>
     </row>
     <row r="17">
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2013,16 +2013,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>42.5313457611372</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444135</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2244,10 +2244,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2259,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>65.78783178799286</v>
       </c>
       <c r="S22" t="n">
-        <v>43.73846614325492</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2301,7 +2301,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2478,13 +2478,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2493,7 +2493,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.63824106824964</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2715,7 +2715,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2724,13 +2724,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="G28" t="n">
-        <v>130.1208074460236</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2955,19 +2955,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>55.52079624060465</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3192,7 +3192,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3246,7 +3246,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>194.9085394018862</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3271,7 +3271,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3435,13 +3435,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>6.600826611594925</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3480,7 +3480,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>73.44478684180609</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3672,13 +3672,13 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3717,7 +3717,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>223.8290352905946</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3900,25 +3900,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3951,7 +3951,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>170.9457618790573</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4140,10 +4140,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>48.47457675531665</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4191,10 +4191,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2149.375138862102</v>
+        <v>1275.883734065348</v>
       </c>
       <c r="C2" t="n">
-        <v>1780.41262192169</v>
+        <v>1275.883734065348</v>
       </c>
       <c r="D2" t="n">
-        <v>1422.14692331494</v>
+        <v>1275.883734065348</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>890.0954814671036</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>479.109576677496</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>61.14576857568289</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4333,16 +4333,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4357,25 +4357,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2621.771591251948</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2403.136924224011</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2149.375138862102</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2149.375138862102</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2149.375138862102</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X2" t="n">
-        <v>2149.375138862102</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="Y2" t="n">
-        <v>2149.375138862102</v>
+        <v>1662.48357412947</v>
       </c>
     </row>
     <row r="3">
@@ -4400,7 +4400,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4409,25 +4409,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C4" t="n">
-        <v>559.1928012785273</v>
+        <v>559.1928012785276</v>
       </c>
       <c r="D4" t="n">
-        <v>409.0761618661916</v>
+        <v>409.0761618661918</v>
       </c>
       <c r="E4" t="n">
-        <v>261.1630682837985</v>
+        <v>261.1630682837987</v>
       </c>
       <c r="F4" t="n">
-        <v>114.2731207858881</v>
+        <v>114.2731207858883</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1970.914677487028</v>
+        <v>808.0839286340179</v>
       </c>
       <c r="C5" t="n">
-        <v>1601.952160546617</v>
+        <v>439.1214116936061</v>
       </c>
       <c r="D5" t="n">
-        <v>1243.686461939866</v>
+        <v>80.85571308685564</v>
       </c>
       <c r="E5" t="n">
-        <v>857.8982093416219</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F5" t="n">
-        <v>446.9123045520143</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>432.9889004906052</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733131</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V5" t="n">
-        <v>2697.149091018222</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W5" t="n">
-        <v>2344.380435748108</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="X5" t="n">
-        <v>1970.914677487028</v>
+        <v>1584.823100673951</v>
       </c>
       <c r="Y5" t="n">
-        <v>1970.914677487028</v>
+        <v>1194.68376869814</v>
       </c>
     </row>
     <row r="6">
@@ -4643,7 +4643,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
@@ -4655,7 +4655,7 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>222.8791647482714</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4734,43 +4734,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="U7" t="n">
-        <v>625.3202087220412</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="V7" t="n">
-        <v>625.3202087220412</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="W7" t="n">
-        <v>625.3202087220412</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="X7" t="n">
-        <v>625.3202087220412</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="Y7" t="n">
-        <v>404.5276295785111</v>
+        <v>698.7120650600563</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1685.842648463791</v>
+        <v>1590.992732478547</v>
       </c>
       <c r="C8" t="n">
-        <v>1316.880131523379</v>
+        <v>1222.030215538135</v>
       </c>
       <c r="D8" t="n">
-        <v>958.6144329166289</v>
+        <v>863.7645169313848</v>
       </c>
       <c r="E8" t="n">
-        <v>572.8261803183846</v>
+        <v>477.9762643331405</v>
       </c>
       <c r="F8" t="n">
-        <v>161.840275528777</v>
+        <v>66.99035954353295</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>75.17723181374775</v>
+        <v>242.5828808341008</v>
       </c>
       <c r="K8" t="n">
-        <v>157.7403863883401</v>
+        <v>325.1460354086931</v>
       </c>
       <c r="L8" t="n">
-        <v>710.5536446345393</v>
+        <v>464.4746912499463</v>
       </c>
       <c r="M8" t="n">
-        <v>1342.271455617851</v>
+        <v>848.1892110771036</v>
       </c>
       <c r="N8" t="n">
-        <v>1969.579123677698</v>
+        <v>1475.49687913695</v>
       </c>
       <c r="O8" t="n">
-        <v>2341.238804993795</v>
+        <v>2022.658083904028</v>
       </c>
       <c r="P8" t="n">
         <v>2451.973130243322</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2540.93405351505</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T8" t="n">
-        <v>2326.134191782762</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U8" t="n">
-        <v>2072.442488527913</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V8" t="n">
-        <v>2072.442488527913</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W8" t="n">
-        <v>2072.442488527913</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="X8" t="n">
-        <v>2072.442488527913</v>
+        <v>2367.73190451848</v>
       </c>
       <c r="Y8" t="n">
-        <v>2072.442488527913</v>
+        <v>1977.592572542669</v>
       </c>
     </row>
     <row r="9">
@@ -4871,16 +4871,16 @@
         <v>484.7397722991365</v>
       </c>
       <c r="F9" t="n">
-        <v>338.2052143260214</v>
+        <v>338.2052143260215</v>
       </c>
       <c r="G9" t="n">
         <v>200.7638166852434</v>
       </c>
       <c r="H9" t="n">
-        <v>99.84783883004796</v>
+        <v>99.84783883004798</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
         <v>172.6022336772601</v>
@@ -4889,13 +4889,13 @@
         <v>502.03063798307</v>
       </c>
       <c r="L9" t="n">
-        <v>975.0527656697138</v>
+        <v>1006.392177849189</v>
       </c>
       <c r="M9" t="n">
-        <v>1154.550102024319</v>
+        <v>1233.514064314702</v>
       </c>
       <c r="N9" t="n">
-        <v>1822.094502051329</v>
+        <v>1432.170805967367</v>
       </c>
       <c r="O9" t="n">
         <v>1981.606814720089</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>872.2291984494694</v>
+        <v>538.7834855023629</v>
       </c>
       <c r="C10" t="n">
-        <v>703.2930155215626</v>
+        <v>369.8473025744559</v>
       </c>
       <c r="D10" t="n">
-        <v>553.1763761092268</v>
+        <v>219.7306631621202</v>
       </c>
       <c r="E10" t="n">
-        <v>405.2632825268337</v>
+        <v>71.81756957972706</v>
       </c>
       <c r="F10" t="n">
-        <v>258.3733350289233</v>
+        <v>71.81756957972706</v>
       </c>
       <c r="G10" t="n">
-        <v>89.76649002430668</v>
+        <v>71.81756957972706</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>71.81756957972706</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>71.81756957972706</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>154.9909114159743</v>
@@ -5004,10 +5004,10 @@
         <v>1053.877663279709</v>
       </c>
       <c r="X10" t="n">
-        <v>1053.877663279709</v>
+        <v>941.2245294761327</v>
       </c>
       <c r="Y10" t="n">
-        <v>1053.877663279709</v>
+        <v>720.4319503326026</v>
       </c>
     </row>
     <row r="11">
@@ -5041,10 +5041,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J11" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5056,7 +5056,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5120,25 +5120,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637306</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M12" t="n">
-        <v>1186.520756890282</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N12" t="n">
-        <v>1814.118720444889</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O12" t="n">
-        <v>2366.028450684176</v>
+        <v>2020.349486996072</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2443.97263649114</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>763.7541388327643</v>
+        <v>659.9487421954783</v>
       </c>
       <c r="C13" t="n">
-        <v>594.8179559048574</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="D13" t="n">
-        <v>594.8179559048574</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E13" t="n">
-        <v>446.9048623224643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F13" t="n">
         <v>343.0994656851783</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1938.286391947399</v>
+        <v>1834.480995310113</v>
       </c>
       <c r="V13" t="n">
-        <v>1683.601903741512</v>
+        <v>1579.796507104226</v>
       </c>
       <c r="W13" t="n">
-        <v>1394.184733704551</v>
+        <v>1290.379337067265</v>
       </c>
       <c r="X13" t="n">
-        <v>1166.195182806534</v>
+        <v>1062.389786169248</v>
       </c>
       <c r="Y13" t="n">
-        <v>945.402603663004</v>
+        <v>841.597207025718</v>
       </c>
     </row>
     <row r="14">
@@ -5260,10 +5260,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
         <v>793.7736536168611</v>
@@ -5275,22 +5275,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5366,13 +5366,13 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>724.7519863413023</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C16" t="n">
-        <v>555.8158034133954</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D16" t="n">
-        <v>555.8158034133954</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E16" t="n">
-        <v>407.9027098310023</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5475,13 +5475,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y16" t="n">
-        <v>906.400451171542</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="17">
@@ -5503,7 +5503,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5700,25 +5700,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="20">
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362683</v>
@@ -5749,10 +5749,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
@@ -5767,7 +5767,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5785,19 +5785,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5831,28 +5831,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>719.5738700011939</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C22" t="n">
-        <v>550.637687073287</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D22" t="n">
-        <v>550.637687073287</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2380.510728238854</v>
       </c>
       <c r="S22" t="n">
-        <v>2402.78281474869</v>
+        <v>2197.655893893758</v>
       </c>
       <c r="T22" t="n">
-        <v>2183.181349771631</v>
+        <v>1978.054428916699</v>
       </c>
       <c r="U22" t="n">
-        <v>1894.106123115829</v>
+        <v>1688.979202260897</v>
       </c>
       <c r="V22" t="n">
-        <v>1639.421634909942</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="W22" t="n">
-        <v>1350.004464872981</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X22" t="n">
-        <v>1122.014913974964</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y22" t="n">
-        <v>901.2223348314336</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="23">
@@ -5965,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6001,16 +6001,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6022,19 +6022,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>559.0424953278208</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>559.0424953278208</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>408.925855915485</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6147,52 +6147,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2425.106274420413</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2242.251440075317</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T25" t="n">
-        <v>2022.649975098258</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>1733.574748442456</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1478.890260236569</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1189.473090199608</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>961.4835393015907</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>740.6909601580605</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6223,13 +6223,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6238,16 +6238,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>513.8536007400717</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>513.8536007400717</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>513.8536007400717</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>366.9636532421613</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6384,52 +6384,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6439,31 +6439,31 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075809</v>
@@ -6475,16 +6475,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6496,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6539,28 +6539,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>388.6197041282753</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>240.7066105458822</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6621,52 +6621,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2390.881471216014</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6676,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6712,16 +6712,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6733,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6776,25 +6776,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>352.5519571452613</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>949.9304447718132</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G34" t="n">
         <v>235.5284942057738</v>
@@ -6858,52 +6858,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6919,13 +6919,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6934,25 +6934,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7013,28 +7013,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>980.1499206998682</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O36" t="n">
-        <v>2319.799627685893</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1016.58045691144</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C37" t="n">
-        <v>847.644273983533</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="D37" t="n">
-        <v>697.5276345711973</v>
+        <v>415.5933575433587</v>
       </c>
       <c r="E37" t="n">
-        <v>549.6145409888042</v>
+        <v>267.6802639609656</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7095,52 +7095,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1970.320130882545</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1715.635642676658</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1426.218472639697</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1198.22892174168</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>1198.22892174168</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="38">
@@ -7189,7 +7189,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7250,28 +7250,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>454.6048385560546</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N39" t="n">
-        <v>1670.092171589158</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>576.8388927589092</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7365,19 +7365,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1751.371145873544</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1496.686657667657</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1207.269487630696</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>979.2799367326791</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>758.4873575891489</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7487,25 +7487,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143765</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>560.7825789706076</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>391.8463960427007</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D43" t="n">
-        <v>241.729756630365</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E43" t="n">
-        <v>93.81666304797187</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="F43" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7599,22 +7599,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2024.390058741045</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1735.314832085242</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1480.630343879355</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1191.213173842395</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>963.2236229443774</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>742.4310438008473</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7654,16 +7654,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7730,19 +7730,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>352.5519571452614</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>949.9304447718133</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N45" t="n">
-        <v>1577.52840832642</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>2252.221377756499</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7782,13 +7782,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E46" t="n">
         <v>402.7245934908939</v>
@@ -7839,19 +7839,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8075,10 +8075,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415591</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8218,7 +8218,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711646</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
@@ -8303,10 +8303,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516228</v>
       </c>
       <c r="N6" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8452,25 +8452,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>449.5135334928325</v>
+        <v>199.0051585876259</v>
       </c>
       <c r="N8" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O8" t="n">
-        <v>203.5259151506442</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8537,16 +8537,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>339.1843734049999</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>48.10560617263471</v>
       </c>
       <c r="N9" t="n">
-        <v>473.6238973478236</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -23427,7 +23427,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>42.65370535201814</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>144.6341900408528</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23658,7 +23658,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23670,7 +23670,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23715,13 +23715,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>208.7894017452188</v>
+        <v>211.1765892730639</v>
       </c>
     </row>
     <row r="17">
@@ -23901,16 +23901,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>102.889702261794</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,7 +23940,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24132,10 +24132,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0.5874149221288292</v>
       </c>
       <c r="S22" t="n">
-        <v>137.2878198583897</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24189,7 +24189,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24366,13 +24366,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>44.73700564187202</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24603,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24612,16 +24612,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="G28" t="n">
-        <v>35.40333084624521</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>125.5054897610399</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25080,7 +25080,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>40.32043864788574</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25089,13 +25089,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25134,7 +25134,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>57.22910392194183</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25323,16 +25323,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>138.8202214113363</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25368,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>212.7396875474381</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25560,13 +25560,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25605,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>62.35543909864955</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25788,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>116.6691671648112</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25839,7 +25839,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>46.45968844823099</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26028,10 +26028,10 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>100.1408962628957</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26079,10 +26079,10 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554203.1946583912</v>
+        <v>554203.1946583913</v>
       </c>
       <c r="C2" t="n">
-        <v>554203.1946583909</v>
+        <v>554203.1946583911</v>
       </c>
       <c r="D2" t="n">
-        <v>554203.1946583914</v>
+        <v>554203.1946583916</v>
       </c>
       <c r="E2" t="n">
         <v>544823.9547907539</v>
       </c>
       <c r="F2" t="n">
+        <v>544823.9547907539</v>
+      </c>
+      <c r="G2" t="n">
+        <v>544823.954790754</v>
+      </c>
+      <c r="H2" t="n">
+        <v>544823.9547907541</v>
+      </c>
+      <c r="I2" t="n">
+        <v>544823.9547907541</v>
+      </c>
+      <c r="J2" t="n">
+        <v>544823.9547907539</v>
+      </c>
+      <c r="K2" t="n">
         <v>544823.9547907538</v>
       </c>
-      <c r="G2" t="n">
+      <c r="L2" t="n">
         <v>544823.9547907538</v>
       </c>
-      <c r="H2" t="n">
-        <v>544823.954790754</v>
-      </c>
-      <c r="I2" t="n">
-        <v>544823.9547907542</v>
-      </c>
-      <c r="J2" t="n">
-        <v>544823.954790754</v>
-      </c>
-      <c r="K2" t="n">
-        <v>544823.9547907542</v>
-      </c>
-      <c r="L2" t="n">
-        <v>544823.9547907541</v>
-      </c>
       <c r="M2" t="n">
-        <v>544823.954790754</v>
+        <v>544823.9547907539</v>
       </c>
       <c r="N2" t="n">
-        <v>544823.954790754</v>
+        <v>544823.9547907538</v>
       </c>
       <c r="O2" t="n">
-        <v>544823.954790754</v>
+        <v>544823.9547907538</v>
       </c>
       <c r="P2" t="n">
-        <v>544823.954790754</v>
+        <v>544823.9547907539</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>176423.219192593</v>
@@ -26429,7 +26429,7 @@
         <v>5677.536566682745</v>
       </c>
       <c r="F4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="G4" t="n">
         <v>5677.536566682745</v>
@@ -26438,28 +26438,28 @@
         <v>5677.536566682744</v>
       </c>
       <c r="I4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="J4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="K4" t="n">
         <v>5677.536566682744</v>
       </c>
       <c r="L4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682744</v>
       </c>
       <c r="M4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682744</v>
       </c>
       <c r="N4" t="n">
         <v>5677.536566682745</v>
       </c>
       <c r="O4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682744</v>
       </c>
       <c r="P4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682744</v>
       </c>
     </row>
     <row r="5">
@@ -26472,7 +26472,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="D5" t="n">
         <v>87562.0451708468</v>
@@ -26524,46 +26524,46 @@
         <v>-328546.178082596</v>
       </c>
       <c r="C6" t="n">
-        <v>261421.7011319481</v>
+        <v>261421.7011319483</v>
       </c>
       <c r="D6" t="n">
-        <v>105617.8950381537</v>
+        <v>105617.8950381539</v>
       </c>
       <c r="E6" t="n">
-        <v>-333376.1822349993</v>
+        <v>-333063.5409060781</v>
       </c>
       <c r="F6" t="n">
-        <v>437676.509145807</v>
+        <v>437989.1504747283</v>
       </c>
       <c r="G6" t="n">
-        <v>437676.509145807</v>
+        <v>437989.1504747284</v>
       </c>
       <c r="H6" t="n">
-        <v>437676.5091458072</v>
+        <v>437989.1504747286</v>
       </c>
       <c r="I6" t="n">
-        <v>437676.5091458073</v>
+        <v>437989.1504747286</v>
       </c>
       <c r="J6" t="n">
-        <v>261253.2899532142</v>
+        <v>261565.9312821353</v>
       </c>
       <c r="K6" t="n">
-        <v>437676.5091458074</v>
+        <v>437989.1504747282</v>
       </c>
       <c r="L6" t="n">
-        <v>437676.5091458073</v>
+        <v>437989.1504747282</v>
       </c>
       <c r="M6" t="n">
-        <v>313467.9984377487</v>
+        <v>313780.6397666698</v>
       </c>
       <c r="N6" t="n">
-        <v>437676.5091458073</v>
+        <v>437989.1504747282</v>
       </c>
       <c r="O6" t="n">
-        <v>437676.5091458072</v>
+        <v>437989.1504747282</v>
       </c>
       <c r="P6" t="n">
-        <v>437676.5091458072</v>
+        <v>437989.1504747283</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26792,10 +26792,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>498.4210153450928</v>
+        <v>498.4210153450927</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450928</v>
+        <v>498.4210153450927</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450928</v>
+        <v>498.4210153450927</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27396,10 +27396,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>316.7920138765919</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>154.2703906151716</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27438,7 +27438,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27551,7 +27551,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>107.5829646831825</v>
+        <v>107.5829646831823</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27624,19 +27624,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>375.946981880942</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>100.5986295256801</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -27675,7 +27675,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,19 +27773,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>149.227892560983</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27830,7 +27830,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>184.5011865124287</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27867,7 +27867,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>306.0985831746084</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>315.0408840752156</v>
@@ -27903,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27918,10 +27918,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>43.60808604372403</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28022,19 +28022,19 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H10" t="n">
-        <v>117.2468235473297</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I10" t="n">
         <v>123.266557879417</v>
       </c>
       <c r="J10" t="n">
-        <v>17.69584188176898</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28076,10 +28076,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>114.1830529234965</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31840,13 +31840,13 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862121</v>
@@ -31858,10 +31858,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>250.1723312270667</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32086,16 +32086,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>652.0478969157701</v>
       </c>
       <c r="N15" t="n">
-        <v>465.7451325200306</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32551,7 +32551,7 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
@@ -32563,19 +32563,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>465.7451325200306</v>
+        <v>709.4760096096878</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32791,16 +32791,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
         <v>400.5469039565762</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33028,16 +33028,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
         <v>400.5469039565762</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O30" t="n">
-        <v>164.9290651940687</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,34 +33490,34 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>248.7449369209194</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>543.5992845760902</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>164.9290651940687</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33970,31 +33970,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>349.3304751113902</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>370.9642309107746</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34207,7 +34207,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34222,13 +34222,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>466.5925882502527</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34450,13 +34450,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>248.7449369209195</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
@@ -34465,7 +34465,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>437.8531046913764</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>220.2054057751866</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34938,7 +34938,7 @@
         <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343417</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
         <v>421.5361394435301</v>
@@ -35023,10 +35023,10 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279167</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
@@ -35172,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>21.44873736705384</v>
+        <v>190.5453525391276</v>
       </c>
       <c r="K8" t="n">
         <v>83.39712583292157</v>
       </c>
       <c r="L8" t="n">
-        <v>558.3972305517163</v>
+        <v>140.7360160012659</v>
       </c>
       <c r="M8" t="n">
-        <v>638.0987989730422</v>
+        <v>387.5904240678356</v>
       </c>
       <c r="N8" t="n">
         <v>633.6441091513602</v>
       </c>
       <c r="O8" t="n">
-        <v>375.4138195112093</v>
+        <v>552.6880856233105</v>
       </c>
       <c r="P8" t="n">
-        <v>111.8528537874005</v>
+        <v>433.6515619588832</v>
       </c>
       <c r="Q8" t="n">
         <v>247.6524856312129</v>
@@ -35257,16 +35257,16 @@
         <v>332.7559639452625</v>
       </c>
       <c r="L9" t="n">
-        <v>477.8001289764079</v>
+        <v>509.4561008748672</v>
       </c>
       <c r="M9" t="n">
-        <v>181.3104407622271</v>
+        <v>229.4160469348618</v>
       </c>
       <c r="N9" t="n">
-        <v>674.2872727545556</v>
+        <v>200.663375406732</v>
       </c>
       <c r="O9" t="n">
-        <v>161.1235481502633</v>
+        <v>554.9858674269929</v>
       </c>
       <c r="P9" t="n">
         <v>428.2502711927643</v>
@@ -35409,7 +35409,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
         <v>479.454324036777</v>
@@ -35433,7 +35433,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,13 +35488,13 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
@@ -35506,10 +35506,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>110.1905571410452</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35646,7 +35646,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
         <v>479.454324036777</v>
@@ -35734,16 +35734,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>509.9138629937518</v>
       </c>
       <c r="N15" t="n">
-        <v>334.4034204366973</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -36141,7 +36141,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902404</v>
@@ -36199,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
@@ -36211,19 +36211,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>334.4034204366973</v>
+        <v>578.1342975263545</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36442,13 +36442,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
         <v>257.9506595121318</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36679,13 +36679,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
         <v>257.9506595121318</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,22 +36916,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O30" t="n">
-        <v>22.33282074962425</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,28 +37144,28 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>110.1905571410452</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,22 +37390,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>405.0449047962161</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>22.33282074962425</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37551,7 +37551,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
@@ -37566,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,31 +37618,31 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>211.4890361370312</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>228.3679864663302</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37870,13 +37870,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38098,13 +38098,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>110.1905571410453</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
@@ -38113,7 +38113,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>303.8786972770462</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
